--- a/data/cap_mw.xlsx
+++ b/data/cap_mw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dthierry/Projects/mid-s/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF92EB23-056C-D14C-AF61-D23DCC4648FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35DAF2-DB3D-7649-9EE3-BE4A2A9B4231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="4900" windowWidth="27040" windowHeight="15120" activeTab="3" xr2:uid="{F789D925-8883-FB42-82FA-75F0C65534D3}"/>
+    <workbookView xWindow="-33560" yWindow="1980" windowWidth="27040" windowHeight="15120" activeTab="2" xr2:uid="{F789D925-8883-FB42-82FA-75F0C65534D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="69">
   <si>
     <t>Initial Fleet</t>
   </si>
@@ -267,6 +267,12 @@
   <si>
     <t>heat rate increase</t>
   </si>
+  <si>
+    <t>loan period</t>
+  </si>
+  <si>
+    <t>Fuel Prices ($/mmBtu)</t>
+  </si>
 </sst>
 </file>
 
@@ -11902,6 +11908,1171 @@
         <row r="14">
           <cell r="E14">
             <v>2.26362</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>3.4245784694159997</v>
+          </cell>
+          <cell r="F30">
+            <v>3.6687163573079999</v>
+          </cell>
+          <cell r="G30">
+            <v>3.7432641002939997</v>
+          </cell>
+          <cell r="H30">
+            <v>3.7983107845619992</v>
+          </cell>
+          <cell r="I30">
+            <v>3.8610089207459999</v>
+          </cell>
+          <cell r="J30">
+            <v>3.920566513482</v>
+          </cell>
+          <cell r="K30">
+            <v>4.0007884348260001</v>
+          </cell>
+          <cell r="L30">
+            <v>4.0704520417019996</v>
+          </cell>
+          <cell r="M30">
+            <v>4.141212168797999</v>
+          </cell>
+          <cell r="N30">
+            <v>4.2161460329520004</v>
+          </cell>
+          <cell r="O30">
+            <v>4.2904796064839994</v>
+          </cell>
+          <cell r="P30">
+            <v>4.3713252093599992</v>
+          </cell>
+          <cell r="Q30">
+            <v>4.4610842322719995</v>
+          </cell>
+          <cell r="R30">
+            <v>4.5614226785219998</v>
+          </cell>
+          <cell r="S30">
+            <v>4.6612197107819995</v>
+          </cell>
+          <cell r="T30">
+            <v>4.7535380415540001</v>
+          </cell>
+          <cell r="U30">
+            <v>4.8523783285439999</v>
+          </cell>
+          <cell r="V30">
+            <v>4.9632415432739991</v>
+          </cell>
+          <cell r="W30">
+            <v>5.0864284586159991</v>
+          </cell>
+          <cell r="X30">
+            <v>5.2067063434679994</v>
+          </cell>
+          <cell r="Y30">
+            <v>5.3179343422919994</v>
+          </cell>
+          <cell r="Z30">
+            <v>5.4473676575220003</v>
+          </cell>
+          <cell r="AA30">
+            <v>5.5543099852259994</v>
+          </cell>
+          <cell r="AB30">
+            <v>5.7005924004899997</v>
+          </cell>
+          <cell r="AC30">
+            <v>5.8302024597179996</v>
+          </cell>
+          <cell r="AD30">
+            <v>5.9938005380939998</v>
+          </cell>
+          <cell r="AE30">
+            <v>6.1256641499320681</v>
+          </cell>
+          <cell r="AF30">
+            <v>6.2604287612305738</v>
+          </cell>
+          <cell r="AG30">
+            <v>6.3981581939776468</v>
+          </cell>
+          <cell r="AH30">
+            <v>6.5389176742451554</v>
+          </cell>
+          <cell r="AI30">
+            <v>6.6827738630785491</v>
+          </cell>
+          <cell r="AJ30">
+            <v>6.8297948880662771</v>
+          </cell>
+          <cell r="AK30">
+            <v>6.9800503756037351</v>
+          </cell>
+          <cell r="AL30">
+            <v>7.1336114838670177</v>
+          </cell>
+          <cell r="AM30">
+            <v>7.2905509365120924</v>
+          </cell>
+          <cell r="AN30">
+            <v>7.4509430571153583</v>
+          </cell>
+          <cell r="AO30">
+            <v>7.6148638043718959</v>
+          </cell>
+          <cell r="AP30">
+            <v>7.7823908080680777</v>
+          </cell>
+          <cell r="AQ30">
+            <v>7.9536034058455751</v>
+          </cell>
+          <cell r="AR30">
+            <v>8.1285826807741781</v>
+          </cell>
+          <cell r="AS30">
+            <v>8.3074114997512094</v>
+          </cell>
+          <cell r="AT30">
+            <v>8.4901745527457368</v>
+          </cell>
+          <cell r="AU30">
+            <v>8.676958392906144</v>
+          </cell>
+          <cell r="AV30">
+            <v>8.8678514775500794</v>
+          </cell>
+          <cell r="AW30">
+            <v>9.0629442100561821</v>
+          </cell>
+          <cell r="AX30">
+            <v>9.2623289826774187</v>
+          </cell>
+          <cell r="AY30">
+            <v>9.4661002202963225</v>
+          </cell>
+          <cell r="AZ30">
+            <v>9.6743544251428411</v>
+          </cell>
+          <cell r="BA30">
+            <v>9.8871902224959829</v>
+          </cell>
+          <cell r="BB30">
+            <v>10.104708407390895</v>
+          </cell>
+          <cell r="BC30">
+            <v>10.327011992353494</v>
+          </cell>
+          <cell r="BD30">
+            <v>10.554206256185271</v>
+          </cell>
+          <cell r="BE30">
+            <v>10.786398793821347</v>
+          </cell>
+          <cell r="BF30">
+            <v>11.023699567285416</v>
+          </cell>
+          <cell r="BG30">
+            <v>11.266220957765695</v>
+          </cell>
+          <cell r="BH30">
+            <v>11.51407781883654</v>
+          </cell>
+          <cell r="BI30">
+            <v>11.767387530850945</v>
+          </cell>
+          <cell r="BJ30">
+            <v>12.026270056529667</v>
+          </cell>
+          <cell r="BK30">
+            <v>12.290847997773319</v>
+          </cell>
+          <cell r="BL30">
+            <v>12.561246653724332</v>
+          </cell>
+          <cell r="BM30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BN30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BO30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BP30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BQ30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BR30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BS30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BT30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BU30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BV30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BW30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BX30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BY30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="BZ30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CA30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CB30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CC30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CD30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CE30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CF30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CG30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CH30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CI30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CJ30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CK30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CL30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CM30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CN30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CO30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CP30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CQ30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CR30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CS30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CT30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CU30">
+            <v>12.837594080106268</v>
+          </cell>
+          <cell r="CV30">
+            <v>12.837594080106268</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>10.583447</v>
+          </cell>
+          <cell r="F31">
+            <v>10.860754999999999</v>
+          </cell>
+          <cell r="G31">
+            <v>11.132146000000001</v>
+          </cell>
+          <cell r="H31">
+            <v>11.294271</v>
+          </cell>
+          <cell r="I31">
+            <v>11.532216</v>
+          </cell>
+          <cell r="J31">
+            <v>11.828798000000001</v>
+          </cell>
+          <cell r="K31">
+            <v>12.2593</v>
+          </cell>
+          <cell r="L31">
+            <v>12.693151</v>
+          </cell>
+          <cell r="M31">
+            <v>13.229115999999999</v>
+          </cell>
+          <cell r="N31">
+            <v>13.752329</v>
+          </cell>
+          <cell r="O31">
+            <v>14.215116999999999</v>
+          </cell>
+          <cell r="P31">
+            <v>14.582856</v>
+          </cell>
+          <cell r="Q31">
+            <v>14.852485</v>
+          </cell>
+          <cell r="R31">
+            <v>15.229836000000001</v>
+          </cell>
+          <cell r="S31">
+            <v>15.551762</v>
+          </cell>
+          <cell r="T31">
+            <v>15.999998</v>
+          </cell>
+          <cell r="U31">
+            <v>16.524666</v>
+          </cell>
+          <cell r="V31">
+            <v>17.036377000000002</v>
+          </cell>
+          <cell r="W31">
+            <v>17.458908000000001</v>
+          </cell>
+          <cell r="X31">
+            <v>17.861418</v>
+          </cell>
+          <cell r="Y31">
+            <v>18.296036000000001</v>
+          </cell>
+          <cell r="Z31">
+            <v>18.723932000000001</v>
+          </cell>
+          <cell r="AA31">
+            <v>19.245096</v>
+          </cell>
+          <cell r="AB31">
+            <v>19.871790000000001</v>
+          </cell>
+          <cell r="AC31">
+            <v>20.591619000000001</v>
+          </cell>
+          <cell r="AD31">
+            <v>21.268867</v>
+          </cell>
+          <cell r="AE31">
+            <v>21.758050940999997</v>
+          </cell>
+          <cell r="AF31">
+            <v>22.258486112642995</v>
+          </cell>
+          <cell r="AG31">
+            <v>22.770431293233781</v>
+          </cell>
+          <cell r="AH31">
+            <v>23.294151212978157</v>
+          </cell>
+          <cell r="AI31">
+            <v>23.829916690876654</v>
+          </cell>
+          <cell r="AJ31">
+            <v>24.378004774766815</v>
+          </cell>
+          <cell r="AK31">
+            <v>24.938698884586451</v>
+          </cell>
+          <cell r="AL31">
+            <v>25.512288958931936</v>
+          </cell>
+          <cell r="AM31">
+            <v>26.099071604987369</v>
+          </cell>
+          <cell r="AN31">
+            <v>26.699350251902075</v>
+          </cell>
+          <cell r="AO31">
+            <v>27.313435307695819</v>
+          </cell>
+          <cell r="AP31">
+            <v>27.94164431977282</v>
+          </cell>
+          <cell r="AQ31">
+            <v>28.584302139127594</v>
+          </cell>
+          <cell r="AR31">
+            <v>29.241741088327526</v>
+          </cell>
+          <cell r="AS31">
+            <v>29.914301133359057</v>
+          </cell>
+          <cell r="AT31">
+            <v>30.602330059426311</v>
+          </cell>
+          <cell r="AU31">
+            <v>31.306183650793113</v>
+          </cell>
+          <cell r="AV31">
+            <v>32.026225874761352</v>
+          </cell>
+          <cell r="AW31">
+            <v>32.762829069880858</v>
+          </cell>
+          <cell r="AX31">
+            <v>33.516374138488118</v>
+          </cell>
+          <cell r="AY31">
+            <v>34.28725074367334</v>
+          </cell>
+          <cell r="AZ31">
+            <v>35.075857510777823</v>
+          </cell>
+          <cell r="BA31">
+            <v>35.882602233525709</v>
+          </cell>
+          <cell r="BB31">
+            <v>36.707902084896794</v>
+          </cell>
+          <cell r="BC31">
+            <v>37.552183832849416</v>
+          </cell>
+          <cell r="BD31">
+            <v>38.415884061004945</v>
+          </cell>
+          <cell r="BE31">
+            <v>39.299449394408057</v>
+          </cell>
+          <cell r="BF31">
+            <v>40.203336730479442</v>
+          </cell>
+          <cell r="BG31">
+            <v>41.128013475280468</v>
+          </cell>
+          <cell r="BH31">
+            <v>42.073957785211917</v>
+          </cell>
+          <cell r="BI31">
+            <v>43.041658814271784</v>
+          </cell>
+          <cell r="BJ31">
+            <v>44.031616967000033</v>
+          </cell>
+          <cell r="BK31">
+            <v>45.044344157241028</v>
+          </cell>
+          <cell r="BL31">
+            <v>46.08036407285757</v>
+          </cell>
+          <cell r="BM31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BN31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BO31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BP31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BQ31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BR31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BS31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BT31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BU31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BV31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BW31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BX31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BY31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="BZ31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CA31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CB31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CC31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CD31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CE31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CF31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CG31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CH31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CI31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CJ31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CK31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CL31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CM31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CN31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CO31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CP31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CQ31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CR31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CS31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CT31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CU31">
+            <v>47.14021244653329</v>
+          </cell>
+          <cell r="CV31">
+            <v>47.14021244653329</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>2.4124089999999998</v>
+          </cell>
+          <cell r="F32">
+            <v>2.3775740000000001</v>
+          </cell>
+          <cell r="G32">
+            <v>2.4015439999999999</v>
+          </cell>
+          <cell r="H32">
+            <v>2.4437799999999998</v>
+          </cell>
+          <cell r="I32">
+            <v>2.4890810000000001</v>
+          </cell>
+          <cell r="J32">
+            <v>2.5510630000000001</v>
+          </cell>
+          <cell r="K32">
+            <v>2.598379</v>
+          </cell>
+          <cell r="L32">
+            <v>2.641133</v>
+          </cell>
+          <cell r="M32">
+            <v>2.6855169999999999</v>
+          </cell>
+          <cell r="N32">
+            <v>2.7280199999999999</v>
+          </cell>
+          <cell r="O32">
+            <v>2.7629160000000001</v>
+          </cell>
+          <cell r="P32">
+            <v>2.8010009999999999</v>
+          </cell>
+          <cell r="Q32">
+            <v>2.8395980000000001</v>
+          </cell>
+          <cell r="R32">
+            <v>2.8813170000000001</v>
+          </cell>
+          <cell r="S32">
+            <v>2.914139</v>
+          </cell>
+          <cell r="T32">
+            <v>2.9564339999999998</v>
+          </cell>
+          <cell r="U32">
+            <v>2.985579</v>
+          </cell>
+          <cell r="V32">
+            <v>3.0166810000000002</v>
+          </cell>
+          <cell r="W32">
+            <v>3.0477449999999999</v>
+          </cell>
+          <cell r="X32">
+            <v>3.0820979999999998</v>
+          </cell>
+          <cell r="Y32">
+            <v>3.1195349999999999</v>
+          </cell>
+          <cell r="Z32">
+            <v>3.1589079999999998</v>
+          </cell>
+          <cell r="AA32">
+            <v>3.1996739999999999</v>
+          </cell>
+          <cell r="AB32">
+            <v>3.2355070000000001</v>
+          </cell>
+          <cell r="AC32">
+            <v>3.2721490000000002</v>
+          </cell>
+          <cell r="AD32">
+            <v>3.3023980000000002</v>
+          </cell>
+          <cell r="AE32">
+            <v>3.3453291739999997</v>
+          </cell>
+          <cell r="AF32">
+            <v>3.3888184532619996</v>
+          </cell>
+          <cell r="AG32">
+            <v>3.4328730931544054</v>
+          </cell>
+          <cell r="AH32">
+            <v>3.4775004433654124</v>
+          </cell>
+          <cell r="AI32">
+            <v>3.5227079491291624</v>
+          </cell>
+          <cell r="AJ32">
+            <v>3.5685031524678412</v>
+          </cell>
+          <cell r="AK32">
+            <v>3.6148936934499227</v>
+          </cell>
+          <cell r="AL32">
+            <v>3.6618873114647714</v>
+          </cell>
+          <cell r="AM32">
+            <v>3.7094918465138131</v>
+          </cell>
+          <cell r="AN32">
+            <v>3.7577152405184924</v>
+          </cell>
+          <cell r="AO32">
+            <v>3.8065655386452324</v>
+          </cell>
+          <cell r="AP32">
+            <v>3.8560508906476199</v>
+          </cell>
+          <cell r="AQ32">
+            <v>3.9061795522260385</v>
+          </cell>
+          <cell r="AR32">
+            <v>3.9569598864049764</v>
+          </cell>
+          <cell r="AS32">
+            <v>4.0084003649282405</v>
+          </cell>
+          <cell r="AT32">
+            <v>4.0605095696723073</v>
+          </cell>
+          <cell r="AU32">
+            <v>4.113296194078047</v>
+          </cell>
+          <cell r="AV32">
+            <v>4.166769044601061</v>
+          </cell>
+          <cell r="AW32">
+            <v>4.2209370421808741</v>
+          </cell>
+          <cell r="AX32">
+            <v>4.2758092237292251</v>
+          </cell>
+          <cell r="AY32">
+            <v>4.3313947436377047</v>
+          </cell>
+          <cell r="AZ32">
+            <v>4.3877028753049947</v>
+          </cell>
+          <cell r="BA32">
+            <v>4.4447430126839595</v>
+          </cell>
+          <cell r="BB32">
+            <v>4.5025246718488505</v>
+          </cell>
+          <cell r="BC32">
+            <v>4.5610574925828855</v>
+          </cell>
+          <cell r="BD32">
+            <v>4.6203512399864621</v>
+          </cell>
+          <cell r="BE32">
+            <v>4.6804158061062857</v>
+          </cell>
+          <cell r="BF32">
+            <v>4.7412612115856669</v>
+          </cell>
+          <cell r="BG32">
+            <v>4.8028976073362806</v>
+          </cell>
+          <cell r="BH32">
+            <v>4.8653352762316517</v>
+          </cell>
+          <cell r="BI32">
+            <v>4.9285846348226627</v>
+          </cell>
+          <cell r="BJ32">
+            <v>4.9926562350753567</v>
+          </cell>
+          <cell r="BK32">
+            <v>5.0575607661313358</v>
+          </cell>
+          <cell r="BL32">
+            <v>5.1233090560910428</v>
+          </cell>
+          <cell r="BM32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BN32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BO32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BP32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BQ32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BR32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BS32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BT32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BU32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BV32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BW32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BX32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BY32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="BZ32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CA32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CB32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CC32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CD32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CE32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CF32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CG32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CH32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CI32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CJ32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CK32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CL32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CM32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CN32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CO32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CP32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CQ32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CR32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CS32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CT32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CU32">
+            <v>5.189912073820226</v>
+          </cell>
+          <cell r="CV32">
+            <v>5.189912073820226</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>3.398593</v>
+          </cell>
+          <cell r="F33">
+            <v>3.3475890000000001</v>
+          </cell>
+          <cell r="G33">
+            <v>3.625057</v>
+          </cell>
+          <cell r="H33">
+            <v>3.9359329999999999</v>
+          </cell>
+          <cell r="I33">
+            <v>4.2158259999999999</v>
+          </cell>
+          <cell r="J33">
+            <v>4.608263</v>
+          </cell>
+          <cell r="K33">
+            <v>5.0473359999999996</v>
+          </cell>
+          <cell r="L33">
+            <v>5.4071189999999998</v>
+          </cell>
+          <cell r="M33">
+            <v>6.0226360000000003</v>
+          </cell>
+          <cell r="N33">
+            <v>6.3933260000000001</v>
+          </cell>
+          <cell r="O33">
+            <v>6.7001650000000001</v>
+          </cell>
+          <cell r="P33">
+            <v>7.0568819999999999</v>
+          </cell>
+          <cell r="Q33">
+            <v>7.2021689999999996</v>
+          </cell>
+          <cell r="R33">
+            <v>7.2776589999999999</v>
+          </cell>
+          <cell r="S33">
+            <v>7.5891859999999998</v>
+          </cell>
+          <cell r="T33">
+            <v>7.8939760000000003</v>
+          </cell>
+          <cell r="U33">
+            <v>8.2995409999999996</v>
+          </cell>
+          <cell r="V33">
+            <v>8.5124619999999993</v>
+          </cell>
+          <cell r="W33">
+            <v>8.5117530000000006</v>
+          </cell>
+          <cell r="X33">
+            <v>8.6779379999999993</v>
+          </cell>
+          <cell r="Y33">
+            <v>8.8058069999999997</v>
+          </cell>
+          <cell r="Z33">
+            <v>9.0269549999999992</v>
+          </cell>
+          <cell r="AA33">
+            <v>9.3014240000000008</v>
+          </cell>
+          <cell r="AB33">
+            <v>9.790991</v>
+          </cell>
+          <cell r="AC33">
+            <v>10.352221</v>
+          </cell>
+          <cell r="AD33">
+            <v>10.631080000000001</v>
+          </cell>
+          <cell r="AE33">
+            <v>11.056323200000001</v>
+          </cell>
+          <cell r="AF33">
+            <v>11.498576128000002</v>
+          </cell>
+          <cell r="AG33">
+            <v>11.958519173120003</v>
+          </cell>
+          <cell r="AH33">
+            <v>12.436859940044803</v>
+          </cell>
+          <cell r="AI33">
+            <v>12.934334337646595</v>
+          </cell>
+          <cell r="AJ33">
+            <v>13.451707711152459</v>
+          </cell>
+          <cell r="AK33">
+            <v>13.989776019598557</v>
+          </cell>
+          <cell r="AL33">
+            <v>14.549367060382499</v>
+          </cell>
+          <cell r="AM33">
+            <v>15.131341742797799</v>
+          </cell>
+          <cell r="AN33">
+            <v>15.736595412509711</v>
+          </cell>
+          <cell r="AO33">
+            <v>16.366059229010101</v>
+          </cell>
+          <cell r="AP33">
+            <v>17.020701598170508</v>
+          </cell>
+          <cell r="AQ33">
+            <v>17.701529662097329</v>
+          </cell>
+          <cell r="AR33">
+            <v>18.409590848581221</v>
+          </cell>
+          <cell r="AS33">
+            <v>19.145974482524469</v>
+          </cell>
+          <cell r="AT33">
+            <v>19.911813461825449</v>
+          </cell>
+          <cell r="AU33">
+            <v>20.708286000298468</v>
+          </cell>
+          <cell r="AV33">
+            <v>21.536617440310408</v>
+          </cell>
+          <cell r="AW33">
+            <v>22.398082137922824</v>
+          </cell>
+          <cell r="AX33">
+            <v>23.294005423439739</v>
+          </cell>
+          <cell r="AY33">
+            <v>24.225765640377329</v>
+          </cell>
+          <cell r="AZ33">
+            <v>25.194796265992423</v>
+          </cell>
+          <cell r="BA33">
+            <v>26.202588116632121</v>
+          </cell>
+          <cell r="BB33">
+            <v>27.250691641297408</v>
+          </cell>
+          <cell r="BC33">
+            <v>28.340719306949307</v>
+          </cell>
+          <cell r="BD33">
+            <v>29.47434807922728</v>
+          </cell>
+          <cell r="BE33">
+            <v>30.653322002396372</v>
+          </cell>
+          <cell r="BF33">
+            <v>31.879454882492229</v>
+          </cell>
+          <cell r="BG33">
+            <v>33.154633077791921</v>
+          </cell>
+          <cell r="BH33">
+            <v>34.480818400903601</v>
+          </cell>
+          <cell r="BI33">
+            <v>35.860051136939745</v>
+          </cell>
+          <cell r="BJ33">
+            <v>37.294453182417335</v>
+          </cell>
+          <cell r="BK33">
+            <v>38.786231309714033</v>
+          </cell>
+          <cell r="BL33">
+            <v>40.337680562102598</v>
+          </cell>
+          <cell r="BM33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BN33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BO33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BP33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BQ33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BR33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BS33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BT33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BU33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BV33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BW33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BX33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BY33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="BZ33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CA33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CB33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CC33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CD33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CE33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CF33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CG33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CH33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CI33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CJ33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CK33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CL33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CM33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CN33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CO33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CP33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CQ33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CR33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CS33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CT33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CU33">
+            <v>41.951187784586701</v>
+          </cell>
+          <cell r="CV33">
+            <v>41.951187784586701</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>1.5</v>
           </cell>
         </row>
       </sheetData>
@@ -51074,10 +52245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1832942-D461-F44A-9C1C-8E13CD3E1720}">
-  <dimension ref="A1:CS58"/>
+  <dimension ref="A1:CS72"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62231,228 +63402,4420 @@
         <v>27.22575847275505</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7"/>
+      <c r="AZ45" s="7"/>
+      <c r="BA45" s="7"/>
+      <c r="BB45" s="7"/>
+      <c r="BC45" s="7"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="7"/>
+      <c r="BF45" s="7"/>
+      <c r="BG45" s="7"/>
+      <c r="BH45" s="7"/>
+      <c r="BI45" s="7"/>
+      <c r="BJ45" s="7"/>
+      <c r="BK45" s="7"/>
+      <c r="BL45" s="7"/>
+      <c r="BM45" s="7"/>
+      <c r="BN45" s="7"/>
+      <c r="BO45" s="7"/>
+      <c r="BP45" s="7"/>
+      <c r="BQ45" s="7"/>
+      <c r="BR45" s="7"/>
+      <c r="BS45" s="7"/>
+      <c r="BT45" s="7"/>
+      <c r="BU45" s="7"/>
+      <c r="BV45" s="7"/>
+      <c r="BW45" s="7"/>
+      <c r="BX45" s="7"/>
+      <c r="BY45" s="7"/>
+      <c r="BZ45" s="7"/>
+      <c r="CA45" s="7"/>
+      <c r="CB45" s="7"/>
+      <c r="CC45" s="7"/>
+      <c r="CD45" s="7"/>
+      <c r="CE45" s="7"/>
+      <c r="CF45" s="7"/>
+      <c r="CG45" s="7"/>
+      <c r="CH45" s="7"/>
+      <c r="CI45" s="7"/>
+      <c r="CJ45" s="7"/>
+      <c r="CK45" s="7"/>
+      <c r="CL45" s="7"/>
+      <c r="CM45" s="7"/>
+      <c r="CN45" s="7"/>
+      <c r="CO45" s="7"/>
+      <c r="CP45" s="7"/>
+      <c r="CQ45" s="7"/>
+      <c r="CR45" s="7"/>
+      <c r="CS45" s="7"/>
+    </row>
+    <row r="46" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:97" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C47" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2019</v>
+      </c>
+      <c r="G47" s="9">
+        <v>2020</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I47" s="9">
+        <v>2022</v>
+      </c>
+      <c r="J47" s="9">
+        <v>2023</v>
+      </c>
+      <c r="K47" s="9">
+        <v>2024</v>
+      </c>
+      <c r="L47" s="9">
+        <v>2025</v>
+      </c>
+      <c r="M47" s="9">
+        <v>2026</v>
+      </c>
+      <c r="N47" s="9">
+        <v>2027</v>
+      </c>
+      <c r="O47" s="9">
+        <v>2028</v>
+      </c>
+      <c r="P47" s="9">
+        <v>2029</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>2030</v>
+      </c>
+      <c r="R47" s="9">
+        <v>2031</v>
+      </c>
+      <c r="S47" s="9">
+        <v>2032</v>
+      </c>
+      <c r="T47" s="9">
+        <v>2033</v>
+      </c>
+      <c r="U47" s="9">
+        <v>2034</v>
+      </c>
+      <c r="V47" s="9">
+        <v>2035</v>
+      </c>
+      <c r="W47" s="9">
+        <v>2036</v>
+      </c>
+      <c r="X47" s="9">
+        <v>2037</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>2038</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>2039</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>2040</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>2041</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>2042</v>
+      </c>
+      <c r="AD47" s="9">
+        <v>2043</v>
+      </c>
+      <c r="AE47" s="9">
+        <v>2044</v>
+      </c>
+      <c r="AF47" s="9">
+        <v>2045</v>
+      </c>
+      <c r="AG47" s="9">
+        <v>2046</v>
+      </c>
+      <c r="AH47" s="9">
+        <v>2047</v>
+      </c>
+      <c r="AI47" s="9">
+        <v>2048</v>
+      </c>
+      <c r="AJ47" s="9">
+        <v>2049</v>
+      </c>
+      <c r="AK47" s="9">
+        <v>2050</v>
+      </c>
+      <c r="AL47" s="9">
+        <v>2051</v>
+      </c>
+      <c r="AM47" s="9">
+        <v>2052</v>
+      </c>
+      <c r="AN47" s="9">
+        <v>2053</v>
+      </c>
+      <c r="AO47" s="9">
+        <v>2054</v>
+      </c>
+      <c r="AP47" s="9">
+        <v>2055</v>
+      </c>
+      <c r="AQ47" s="9">
+        <v>2056</v>
+      </c>
+      <c r="AR47" s="9">
+        <v>2057</v>
+      </c>
+      <c r="AS47" s="9">
+        <v>2058</v>
+      </c>
+      <c r="AT47" s="9">
+        <v>2059</v>
+      </c>
+      <c r="AU47" s="9">
+        <v>2060</v>
+      </c>
+      <c r="AV47" s="9">
+        <v>2061</v>
+      </c>
+      <c r="AW47" s="9">
+        <v>2062</v>
+      </c>
+      <c r="AX47" s="9">
+        <v>2063</v>
+      </c>
+      <c r="AY47" s="9">
+        <v>2064</v>
+      </c>
+      <c r="AZ47" s="9">
+        <v>2065</v>
+      </c>
+      <c r="BA47" s="9">
+        <v>2066</v>
+      </c>
+      <c r="BB47" s="9">
+        <v>2067</v>
+      </c>
+      <c r="BC47" s="9">
+        <v>2068</v>
+      </c>
+      <c r="BD47" s="9">
+        <v>2069</v>
+      </c>
+      <c r="BE47" s="9">
+        <v>2070</v>
+      </c>
+      <c r="BF47" s="9">
+        <v>2071</v>
+      </c>
+      <c r="BG47" s="9">
+        <v>2072</v>
+      </c>
+      <c r="BH47" s="9">
+        <v>2073</v>
+      </c>
+      <c r="BI47" s="9">
+        <v>2074</v>
+      </c>
+      <c r="BJ47" s="9">
+        <v>2075</v>
+      </c>
+      <c r="BK47" s="9">
+        <v>2076</v>
+      </c>
+      <c r="BL47" s="9">
+        <v>2077</v>
+      </c>
+      <c r="BM47" s="9">
+        <v>2078</v>
+      </c>
+      <c r="BN47" s="9">
+        <v>2079</v>
+      </c>
+      <c r="BO47" s="9">
+        <v>2080</v>
+      </c>
+      <c r="BP47" s="9">
+        <v>2081</v>
+      </c>
+      <c r="BQ47" s="9">
+        <v>2082</v>
+      </c>
+      <c r="BR47" s="9">
+        <v>2083</v>
+      </c>
+      <c r="BS47" s="9">
+        <v>2084</v>
+      </c>
+      <c r="BT47" s="9">
+        <v>2085</v>
+      </c>
+      <c r="BU47" s="9">
+        <v>2086</v>
+      </c>
+      <c r="BV47" s="9">
+        <v>2087</v>
+      </c>
+      <c r="BW47" s="9">
+        <v>2088</v>
+      </c>
+      <c r="BX47" s="9">
+        <v>2089</v>
+      </c>
+      <c r="BY47" s="9">
+        <v>2090</v>
+      </c>
+      <c r="BZ47" s="9">
+        <v>2091</v>
+      </c>
+      <c r="CA47" s="9">
+        <v>2092</v>
+      </c>
+      <c r="CB47" s="9">
+        <v>2093</v>
+      </c>
+      <c r="CC47" s="9">
+        <v>2094</v>
+      </c>
+      <c r="CD47" s="9">
+        <v>2095</v>
+      </c>
+      <c r="CE47" s="9">
+        <v>2096</v>
+      </c>
+      <c r="CF47" s="9">
+        <v>2097</v>
+      </c>
+      <c r="CG47" s="9">
+        <v>2098</v>
+      </c>
+      <c r="CH47" s="9">
+        <v>2099</v>
+      </c>
+      <c r="CI47" s="9">
+        <v>2100</v>
+      </c>
+      <c r="CJ47" s="9">
+        <v>2101</v>
+      </c>
+      <c r="CK47" s="9">
+        <v>2102</v>
+      </c>
+      <c r="CL47" s="9">
+        <v>2103</v>
+      </c>
+      <c r="CM47" s="9">
+        <v>2104</v>
+      </c>
+      <c r="CN47" s="9">
+        <v>2105</v>
+      </c>
+      <c r="CO47" s="9">
+        <v>2106</v>
+      </c>
+      <c r="CP47" s="9">
+        <v>2107</v>
+      </c>
+      <c r="CQ47" s="9">
+        <v>2108</v>
+      </c>
+      <c r="CR47" s="9">
+        <v>2109</v>
+      </c>
+      <c r="CS47" s="9">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="7">
+        <f>'[3]Processed Energy Prices'!E30</f>
+        <v>3.4245784694159997</v>
+      </c>
+      <c r="C48" s="7">
+        <f>'[3]Processed Energy Prices'!F30</f>
+        <v>3.6687163573079999</v>
+      </c>
+      <c r="D48" s="7">
+        <f>'[3]Processed Energy Prices'!G30</f>
+        <v>3.7432641002939997</v>
+      </c>
+      <c r="E48" s="7">
+        <f>'[3]Processed Energy Prices'!H30</f>
+        <v>3.7983107845619992</v>
+      </c>
+      <c r="F48" s="7">
+        <f>'[3]Processed Energy Prices'!I30</f>
+        <v>3.8610089207459999</v>
+      </c>
+      <c r="G48" s="7">
+        <f>'[3]Processed Energy Prices'!J30</f>
+        <v>3.920566513482</v>
+      </c>
+      <c r="H48" s="7">
+        <f>'[3]Processed Energy Prices'!K30</f>
+        <v>4.0007884348260001</v>
+      </c>
+      <c r="I48" s="7">
+        <f>'[3]Processed Energy Prices'!L30</f>
+        <v>4.0704520417019996</v>
+      </c>
+      <c r="J48" s="7">
+        <f>'[3]Processed Energy Prices'!M30</f>
+        <v>4.141212168797999</v>
+      </c>
+      <c r="K48" s="7">
+        <f>'[3]Processed Energy Prices'!N30</f>
+        <v>4.2161460329520004</v>
+      </c>
+      <c r="L48" s="7">
+        <f>'[3]Processed Energy Prices'!O30</f>
+        <v>4.2904796064839994</v>
+      </c>
+      <c r="M48" s="7">
+        <f>'[3]Processed Energy Prices'!P30</f>
+        <v>4.3713252093599992</v>
+      </c>
+      <c r="N48" s="7">
+        <f>'[3]Processed Energy Prices'!Q30</f>
+        <v>4.4610842322719995</v>
+      </c>
+      <c r="O48" s="7">
+        <f>'[3]Processed Energy Prices'!R30</f>
+        <v>4.5614226785219998</v>
+      </c>
+      <c r="P48" s="7">
+        <f>'[3]Processed Energy Prices'!S30</f>
+        <v>4.6612197107819995</v>
+      </c>
+      <c r="Q48" s="7">
+        <f>'[3]Processed Energy Prices'!T30</f>
+        <v>4.7535380415540001</v>
+      </c>
+      <c r="R48" s="7">
+        <f>'[3]Processed Energy Prices'!U30</f>
+        <v>4.8523783285439999</v>
+      </c>
+      <c r="S48" s="7">
+        <f>'[3]Processed Energy Prices'!V30</f>
+        <v>4.9632415432739991</v>
+      </c>
+      <c r="T48" s="7">
+        <f>'[3]Processed Energy Prices'!W30</f>
+        <v>5.0864284586159991</v>
+      </c>
+      <c r="U48" s="7">
+        <f>'[3]Processed Energy Prices'!X30</f>
+        <v>5.2067063434679994</v>
+      </c>
+      <c r="V48" s="7">
+        <f>'[3]Processed Energy Prices'!Y30</f>
+        <v>5.3179343422919994</v>
+      </c>
+      <c r="W48" s="7">
+        <f>'[3]Processed Energy Prices'!Z30</f>
+        <v>5.4473676575220003</v>
+      </c>
+      <c r="X48" s="7">
+        <f>'[3]Processed Energy Prices'!AA30</f>
+        <v>5.5543099852259994</v>
+      </c>
+      <c r="Y48" s="7">
+        <f>'[3]Processed Energy Prices'!AB30</f>
+        <v>5.7005924004899997</v>
+      </c>
+      <c r="Z48" s="7">
+        <f>'[3]Processed Energy Prices'!AC30</f>
+        <v>5.8302024597179996</v>
+      </c>
+      <c r="AA48" s="7">
+        <f>'[3]Processed Energy Prices'!AD30</f>
+        <v>5.9938005380939998</v>
+      </c>
+      <c r="AB48" s="7">
+        <f>'[3]Processed Energy Prices'!AE30</f>
+        <v>6.1256641499320681</v>
+      </c>
+      <c r="AC48" s="7">
+        <f>'[3]Processed Energy Prices'!AF30</f>
+        <v>6.2604287612305738</v>
+      </c>
+      <c r="AD48" s="7">
+        <f>'[3]Processed Energy Prices'!AG30</f>
+        <v>6.3981581939776468</v>
+      </c>
+      <c r="AE48" s="7">
+        <f>'[3]Processed Energy Prices'!AH30</f>
+        <v>6.5389176742451554</v>
+      </c>
+      <c r="AF48" s="7">
+        <f>'[3]Processed Energy Prices'!AI30</f>
+        <v>6.6827738630785491</v>
+      </c>
+      <c r="AG48" s="7">
+        <f>'[3]Processed Energy Prices'!AJ30</f>
+        <v>6.8297948880662771</v>
+      </c>
+      <c r="AH48" s="7">
+        <f>'[3]Processed Energy Prices'!AK30</f>
+        <v>6.9800503756037351</v>
+      </c>
+      <c r="AI48" s="7">
+        <f>'[3]Processed Energy Prices'!AL30</f>
+        <v>7.1336114838670177</v>
+      </c>
+      <c r="AJ48" s="7">
+        <f>'[3]Processed Energy Prices'!AM30</f>
+        <v>7.2905509365120924</v>
+      </c>
+      <c r="AK48" s="7">
+        <f>'[3]Processed Energy Prices'!AN30</f>
+        <v>7.4509430571153583</v>
+      </c>
+      <c r="AL48" s="7">
+        <f>'[3]Processed Energy Prices'!AO30</f>
+        <v>7.6148638043718959</v>
+      </c>
+      <c r="AM48" s="7">
+        <f>'[3]Processed Energy Prices'!AP30</f>
+        <v>7.7823908080680777</v>
+      </c>
+      <c r="AN48" s="7">
+        <f>'[3]Processed Energy Prices'!AQ30</f>
+        <v>7.9536034058455751</v>
+      </c>
+      <c r="AO48" s="7">
+        <f>'[3]Processed Energy Prices'!AR30</f>
+        <v>8.1285826807741781</v>
+      </c>
+      <c r="AP48" s="7">
+        <f>'[3]Processed Energy Prices'!AS30</f>
+        <v>8.3074114997512094</v>
+      </c>
+      <c r="AQ48" s="7">
+        <f>'[3]Processed Energy Prices'!AT30</f>
+        <v>8.4901745527457368</v>
+      </c>
+      <c r="AR48" s="7">
+        <f>'[3]Processed Energy Prices'!AU30</f>
+        <v>8.676958392906144</v>
+      </c>
+      <c r="AS48" s="7">
+        <f>'[3]Processed Energy Prices'!AV30</f>
+        <v>8.8678514775500794</v>
+      </c>
+      <c r="AT48" s="7">
+        <f>'[3]Processed Energy Prices'!AW30</f>
+        <v>9.0629442100561821</v>
+      </c>
+      <c r="AU48" s="7">
+        <f>'[3]Processed Energy Prices'!AX30</f>
+        <v>9.2623289826774187</v>
+      </c>
+      <c r="AV48" s="7">
+        <f>'[3]Processed Energy Prices'!AY30</f>
+        <v>9.4661002202963225</v>
+      </c>
+      <c r="AW48" s="7">
+        <f>'[3]Processed Energy Prices'!AZ30</f>
+        <v>9.6743544251428411</v>
+      </c>
+      <c r="AX48" s="7">
+        <f>'[3]Processed Energy Prices'!BA30</f>
+        <v>9.8871902224959829</v>
+      </c>
+      <c r="AY48" s="7">
+        <f>'[3]Processed Energy Prices'!BB30</f>
+        <v>10.104708407390895</v>
+      </c>
+      <c r="AZ48" s="7">
+        <f>'[3]Processed Energy Prices'!BC30</f>
+        <v>10.327011992353494</v>
+      </c>
+      <c r="BA48" s="7">
+        <f>'[3]Processed Energy Prices'!BD30</f>
+        <v>10.554206256185271</v>
+      </c>
+      <c r="BB48" s="7">
+        <f>'[3]Processed Energy Prices'!BE30</f>
+        <v>10.786398793821347</v>
+      </c>
+      <c r="BC48" s="7">
+        <f>'[3]Processed Energy Prices'!BF30</f>
+        <v>11.023699567285416</v>
+      </c>
+      <c r="BD48" s="7">
+        <f>'[3]Processed Energy Prices'!BG30</f>
+        <v>11.266220957765695</v>
+      </c>
+      <c r="BE48" s="7">
+        <f>'[3]Processed Energy Prices'!BH30</f>
+        <v>11.51407781883654</v>
+      </c>
+      <c r="BF48" s="7">
+        <f>'[3]Processed Energy Prices'!BI30</f>
+        <v>11.767387530850945</v>
+      </c>
+      <c r="BG48" s="7">
+        <f>'[3]Processed Energy Prices'!BJ30</f>
+        <v>12.026270056529667</v>
+      </c>
+      <c r="BH48" s="7">
+        <f>'[3]Processed Energy Prices'!BK30</f>
+        <v>12.290847997773319</v>
+      </c>
+      <c r="BI48" s="7">
+        <f>'[3]Processed Energy Prices'!BL30</f>
+        <v>12.561246653724332</v>
+      </c>
+      <c r="BJ48" s="7">
+        <f>'[3]Processed Energy Prices'!BM30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BK48" s="7">
+        <f>'[3]Processed Energy Prices'!BN30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BL48" s="7">
+        <f>'[3]Processed Energy Prices'!BO30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BM48" s="7">
+        <f>'[3]Processed Energy Prices'!BP30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BN48" s="7">
+        <f>'[3]Processed Energy Prices'!BQ30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BO48" s="7">
+        <f>'[3]Processed Energy Prices'!BR30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BP48" s="7">
+        <f>'[3]Processed Energy Prices'!BS30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BQ48" s="7">
+        <f>'[3]Processed Energy Prices'!BT30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BR48" s="7">
+        <f>'[3]Processed Energy Prices'!BU30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BS48" s="7">
+        <f>'[3]Processed Energy Prices'!BV30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BT48" s="7">
+        <f>'[3]Processed Energy Prices'!BW30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BU48" s="7">
+        <f>'[3]Processed Energy Prices'!BX30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BV48" s="7">
+        <f>'[3]Processed Energy Prices'!BY30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BW48" s="7">
+        <f>'[3]Processed Energy Prices'!BZ30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BX48" s="7">
+        <f>'[3]Processed Energy Prices'!CA30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BY48" s="7">
+        <f>'[3]Processed Energy Prices'!CB30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="BZ48" s="7">
+        <f>'[3]Processed Energy Prices'!CC30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CA48" s="7">
+        <f>'[3]Processed Energy Prices'!CD30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CB48" s="7">
+        <f>'[3]Processed Energy Prices'!CE30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CC48" s="7">
+        <f>'[3]Processed Energy Prices'!CF30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CD48" s="7">
+        <f>'[3]Processed Energy Prices'!CG30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CE48" s="7">
+        <f>'[3]Processed Energy Prices'!CH30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CF48" s="7">
+        <f>'[3]Processed Energy Prices'!CI30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CG48" s="7">
+        <f>'[3]Processed Energy Prices'!CJ30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CH48" s="7">
+        <f>'[3]Processed Energy Prices'!CK30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CI48" s="7">
+        <f>'[3]Processed Energy Prices'!CL30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CJ48" s="7">
+        <f>'[3]Processed Energy Prices'!CM30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CK48" s="7">
+        <f>'[3]Processed Energy Prices'!CN30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CL48" s="7">
+        <f>'[3]Processed Energy Prices'!CO30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CM48" s="7">
+        <f>'[3]Processed Energy Prices'!CP30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CN48" s="7">
+        <f>'[3]Processed Energy Prices'!CQ30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CO48" s="7">
+        <f>'[3]Processed Energy Prices'!CR30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CP48" s="7">
+        <f>'[3]Processed Energy Prices'!CS30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CQ48" s="7">
+        <f>'[3]Processed Energy Prices'!CT30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CR48" s="7">
+        <f>'[3]Processed Energy Prices'!CU30</f>
+        <v>12.837594080106268</v>
+      </c>
+      <c r="CS48" s="7">
+        <f>'[3]Processed Energy Prices'!CV30</f>
+        <v>12.837594080106268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7">
+        <f>'[3]Processed Energy Prices'!E31</f>
+        <v>10.583447</v>
+      </c>
+      <c r="C49" s="7">
+        <f>'[3]Processed Energy Prices'!F31</f>
+        <v>10.860754999999999</v>
+      </c>
+      <c r="D49" s="7">
+        <f>'[3]Processed Energy Prices'!G31</f>
+        <v>11.132146000000001</v>
+      </c>
+      <c r="E49" s="7">
+        <f>'[3]Processed Energy Prices'!H31</f>
+        <v>11.294271</v>
+      </c>
+      <c r="F49" s="7">
+        <f>'[3]Processed Energy Prices'!I31</f>
+        <v>11.532216</v>
+      </c>
+      <c r="G49" s="7">
+        <f>'[3]Processed Energy Prices'!J31</f>
+        <v>11.828798000000001</v>
+      </c>
+      <c r="H49" s="7">
+        <f>'[3]Processed Energy Prices'!K31</f>
+        <v>12.2593</v>
+      </c>
+      <c r="I49" s="7">
+        <f>'[3]Processed Energy Prices'!L31</f>
+        <v>12.693151</v>
+      </c>
+      <c r="J49" s="7">
+        <f>'[3]Processed Energy Prices'!M31</f>
+        <v>13.229115999999999</v>
+      </c>
+      <c r="K49" s="7">
+        <f>'[3]Processed Energy Prices'!N31</f>
+        <v>13.752329</v>
+      </c>
+      <c r="L49" s="7">
+        <f>'[3]Processed Energy Prices'!O31</f>
+        <v>14.215116999999999</v>
+      </c>
+      <c r="M49" s="7">
+        <f>'[3]Processed Energy Prices'!P31</f>
+        <v>14.582856</v>
+      </c>
+      <c r="N49" s="7">
+        <f>'[3]Processed Energy Prices'!Q31</f>
+        <v>14.852485</v>
+      </c>
+      <c r="O49" s="7">
+        <f>'[3]Processed Energy Prices'!R31</f>
+        <v>15.229836000000001</v>
+      </c>
+      <c r="P49" s="7">
+        <f>'[3]Processed Energy Prices'!S31</f>
+        <v>15.551762</v>
+      </c>
+      <c r="Q49" s="7">
+        <f>'[3]Processed Energy Prices'!T31</f>
+        <v>15.999998</v>
+      </c>
+      <c r="R49" s="7">
+        <f>'[3]Processed Energy Prices'!U31</f>
+        <v>16.524666</v>
+      </c>
+      <c r="S49" s="7">
+        <f>'[3]Processed Energy Prices'!V31</f>
+        <v>17.036377000000002</v>
+      </c>
+      <c r="T49" s="7">
+        <f>'[3]Processed Energy Prices'!W31</f>
+        <v>17.458908000000001</v>
+      </c>
+      <c r="U49" s="7">
+        <f>'[3]Processed Energy Prices'!X31</f>
+        <v>17.861418</v>
+      </c>
+      <c r="V49" s="7">
+        <f>'[3]Processed Energy Prices'!Y31</f>
+        <v>18.296036000000001</v>
+      </c>
+      <c r="W49" s="7">
+        <f>'[3]Processed Energy Prices'!Z31</f>
+        <v>18.723932000000001</v>
+      </c>
+      <c r="X49" s="7">
+        <f>'[3]Processed Energy Prices'!AA31</f>
+        <v>19.245096</v>
+      </c>
+      <c r="Y49" s="7">
+        <f>'[3]Processed Energy Prices'!AB31</f>
+        <v>19.871790000000001</v>
+      </c>
+      <c r="Z49" s="7">
+        <f>'[3]Processed Energy Prices'!AC31</f>
+        <v>20.591619000000001</v>
+      </c>
+      <c r="AA49" s="7">
+        <f>'[3]Processed Energy Prices'!AD31</f>
+        <v>21.268867</v>
+      </c>
+      <c r="AB49" s="7">
+        <f>'[3]Processed Energy Prices'!AE31</f>
+        <v>21.758050940999997</v>
+      </c>
+      <c r="AC49" s="7">
+        <f>'[3]Processed Energy Prices'!AF31</f>
+        <v>22.258486112642995</v>
+      </c>
+      <c r="AD49" s="7">
+        <f>'[3]Processed Energy Prices'!AG31</f>
+        <v>22.770431293233781</v>
+      </c>
+      <c r="AE49" s="7">
+        <f>'[3]Processed Energy Prices'!AH31</f>
+        <v>23.294151212978157</v>
+      </c>
+      <c r="AF49" s="7">
+        <f>'[3]Processed Energy Prices'!AI31</f>
+        <v>23.829916690876654</v>
+      </c>
+      <c r="AG49" s="7">
+        <f>'[3]Processed Energy Prices'!AJ31</f>
+        <v>24.378004774766815</v>
+      </c>
+      <c r="AH49" s="7">
+        <f>'[3]Processed Energy Prices'!AK31</f>
+        <v>24.938698884586451</v>
+      </c>
+      <c r="AI49" s="7">
+        <f>'[3]Processed Energy Prices'!AL31</f>
+        <v>25.512288958931936</v>
+      </c>
+      <c r="AJ49" s="7">
+        <f>'[3]Processed Energy Prices'!AM31</f>
+        <v>26.099071604987369</v>
+      </c>
+      <c r="AK49" s="7">
+        <f>'[3]Processed Energy Prices'!AN31</f>
+        <v>26.699350251902075</v>
+      </c>
+      <c r="AL49" s="7">
+        <f>'[3]Processed Energy Prices'!AO31</f>
+        <v>27.313435307695819</v>
+      </c>
+      <c r="AM49" s="7">
+        <f>'[3]Processed Energy Prices'!AP31</f>
+        <v>27.94164431977282</v>
+      </c>
+      <c r="AN49" s="7">
+        <f>'[3]Processed Energy Prices'!AQ31</f>
+        <v>28.584302139127594</v>
+      </c>
+      <c r="AO49" s="7">
+        <f>'[3]Processed Energy Prices'!AR31</f>
+        <v>29.241741088327526</v>
+      </c>
+      <c r="AP49" s="7">
+        <f>'[3]Processed Energy Prices'!AS31</f>
+        <v>29.914301133359057</v>
+      </c>
+      <c r="AQ49" s="7">
+        <f>'[3]Processed Energy Prices'!AT31</f>
+        <v>30.602330059426311</v>
+      </c>
+      <c r="AR49" s="7">
+        <f>'[3]Processed Energy Prices'!AU31</f>
+        <v>31.306183650793113</v>
+      </c>
+      <c r="AS49" s="7">
+        <f>'[3]Processed Energy Prices'!AV31</f>
+        <v>32.026225874761352</v>
+      </c>
+      <c r="AT49" s="7">
+        <f>'[3]Processed Energy Prices'!AW31</f>
+        <v>32.762829069880858</v>
+      </c>
+      <c r="AU49" s="7">
+        <f>'[3]Processed Energy Prices'!AX31</f>
+        <v>33.516374138488118</v>
+      </c>
+      <c r="AV49" s="7">
+        <f>'[3]Processed Energy Prices'!AY31</f>
+        <v>34.28725074367334</v>
+      </c>
+      <c r="AW49" s="7">
+        <f>'[3]Processed Energy Prices'!AZ31</f>
+        <v>35.075857510777823</v>
+      </c>
+      <c r="AX49" s="7">
+        <f>'[3]Processed Energy Prices'!BA31</f>
+        <v>35.882602233525709</v>
+      </c>
+      <c r="AY49" s="7">
+        <f>'[3]Processed Energy Prices'!BB31</f>
+        <v>36.707902084896794</v>
+      </c>
+      <c r="AZ49" s="7">
+        <f>'[3]Processed Energy Prices'!BC31</f>
+        <v>37.552183832849416</v>
+      </c>
+      <c r="BA49" s="7">
+        <f>'[3]Processed Energy Prices'!BD31</f>
+        <v>38.415884061004945</v>
+      </c>
+      <c r="BB49" s="7">
+        <f>'[3]Processed Energy Prices'!BE31</f>
+        <v>39.299449394408057</v>
+      </c>
+      <c r="BC49" s="7">
+        <f>'[3]Processed Energy Prices'!BF31</f>
+        <v>40.203336730479442</v>
+      </c>
+      <c r="BD49" s="7">
+        <f>'[3]Processed Energy Prices'!BG31</f>
+        <v>41.128013475280468</v>
+      </c>
+      <c r="BE49" s="7">
+        <f>'[3]Processed Energy Prices'!BH31</f>
+        <v>42.073957785211917</v>
+      </c>
+      <c r="BF49" s="7">
+        <f>'[3]Processed Energy Prices'!BI31</f>
+        <v>43.041658814271784</v>
+      </c>
+      <c r="BG49" s="7">
+        <f>'[3]Processed Energy Prices'!BJ31</f>
+        <v>44.031616967000033</v>
+      </c>
+      <c r="BH49" s="7">
+        <f>'[3]Processed Energy Prices'!BK31</f>
+        <v>45.044344157241028</v>
+      </c>
+      <c r="BI49" s="7">
+        <f>'[3]Processed Energy Prices'!BL31</f>
+        <v>46.08036407285757</v>
+      </c>
+      <c r="BJ49" s="7">
+        <f>'[3]Processed Energy Prices'!BM31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BK49" s="7">
+        <f>'[3]Processed Energy Prices'!BN31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BL49" s="7">
+        <f>'[3]Processed Energy Prices'!BO31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BM49" s="7">
+        <f>'[3]Processed Energy Prices'!BP31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BN49" s="7">
+        <f>'[3]Processed Energy Prices'!BQ31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BO49" s="7">
+        <f>'[3]Processed Energy Prices'!BR31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BP49" s="7">
+        <f>'[3]Processed Energy Prices'!BS31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BQ49" s="7">
+        <f>'[3]Processed Energy Prices'!BT31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BR49" s="7">
+        <f>'[3]Processed Energy Prices'!BU31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BS49" s="7">
+        <f>'[3]Processed Energy Prices'!BV31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BT49" s="7">
+        <f>'[3]Processed Energy Prices'!BW31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BU49" s="7">
+        <f>'[3]Processed Energy Prices'!BX31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BV49" s="7">
+        <f>'[3]Processed Energy Prices'!BY31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BW49" s="7">
+        <f>'[3]Processed Energy Prices'!BZ31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BX49" s="7">
+        <f>'[3]Processed Energy Prices'!CA31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BY49" s="7">
+        <f>'[3]Processed Energy Prices'!CB31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BZ49" s="7">
+        <f>'[3]Processed Energy Prices'!CC31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CA49" s="7">
+        <f>'[3]Processed Energy Prices'!CD31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CB49" s="7">
+        <f>'[3]Processed Energy Prices'!CE31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CC49" s="7">
+        <f>'[3]Processed Energy Prices'!CF31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CD49" s="7">
+        <f>'[3]Processed Energy Prices'!CG31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CE49" s="7">
+        <f>'[3]Processed Energy Prices'!CH31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CF49" s="7">
+        <f>'[3]Processed Energy Prices'!CI31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CG49" s="7">
+        <f>'[3]Processed Energy Prices'!CJ31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CH49" s="7">
+        <f>'[3]Processed Energy Prices'!CK31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CI49" s="7">
+        <f>'[3]Processed Energy Prices'!CL31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CJ49" s="7">
+        <f>'[3]Processed Energy Prices'!CM31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CK49" s="7">
+        <f>'[3]Processed Energy Prices'!CN31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CL49" s="7">
+        <f>'[3]Processed Energy Prices'!CO31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CM49" s="7">
+        <f>'[3]Processed Energy Prices'!CP31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CN49" s="7">
+        <f>'[3]Processed Energy Prices'!CQ31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CO49" s="7">
+        <f>'[3]Processed Energy Prices'!CR31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CP49" s="7">
+        <f>'[3]Processed Energy Prices'!CS31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CQ49" s="7">
+        <f>'[3]Processed Energy Prices'!CT31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CR49" s="7">
+        <f>'[3]Processed Energy Prices'!CU31</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CS49" s="7">
+        <f>'[3]Processed Energy Prices'!CV31</f>
+        <v>47.14021244653329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="7">
+        <f>B49</f>
+        <v>10.583447</v>
+      </c>
+      <c r="C50" s="7">
+        <f t="shared" ref="C50:BN50" si="4">C49</f>
+        <v>10.860754999999999</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="4"/>
+        <v>11.132146000000001</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="4"/>
+        <v>11.294271</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="4"/>
+        <v>11.532216</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="4"/>
+        <v>11.828798000000001</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="4"/>
+        <v>12.2593</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="4"/>
+        <v>12.693151</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="4"/>
+        <v>13.229115999999999</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="4"/>
+        <v>13.752329</v>
+      </c>
+      <c r="L50" s="7">
+        <f t="shared" si="4"/>
+        <v>14.215116999999999</v>
+      </c>
+      <c r="M50" s="7">
+        <f t="shared" si="4"/>
+        <v>14.582856</v>
+      </c>
+      <c r="N50" s="7">
+        <f t="shared" si="4"/>
+        <v>14.852485</v>
+      </c>
+      <c r="O50" s="7">
+        <f t="shared" si="4"/>
+        <v>15.229836000000001</v>
+      </c>
+      <c r="P50" s="7">
+        <f t="shared" si="4"/>
+        <v>15.551762</v>
+      </c>
+      <c r="Q50" s="7">
+        <f t="shared" si="4"/>
+        <v>15.999998</v>
+      </c>
+      <c r="R50" s="7">
+        <f t="shared" si="4"/>
+        <v>16.524666</v>
+      </c>
+      <c r="S50" s="7">
+        <f t="shared" si="4"/>
+        <v>17.036377000000002</v>
+      </c>
+      <c r="T50" s="7">
+        <f t="shared" si="4"/>
+        <v>17.458908000000001</v>
+      </c>
+      <c r="U50" s="7">
+        <f t="shared" si="4"/>
+        <v>17.861418</v>
+      </c>
+      <c r="V50" s="7">
+        <f t="shared" si="4"/>
+        <v>18.296036000000001</v>
+      </c>
+      <c r="W50" s="7">
+        <f t="shared" si="4"/>
+        <v>18.723932000000001</v>
+      </c>
+      <c r="X50" s="7">
+        <f t="shared" si="4"/>
+        <v>19.245096</v>
+      </c>
+      <c r="Y50" s="7">
+        <f t="shared" si="4"/>
+        <v>19.871790000000001</v>
+      </c>
+      <c r="Z50" s="7">
+        <f t="shared" si="4"/>
+        <v>20.591619000000001</v>
+      </c>
+      <c r="AA50" s="7">
+        <f t="shared" si="4"/>
+        <v>21.268867</v>
+      </c>
+      <c r="AB50" s="7">
+        <f t="shared" si="4"/>
+        <v>21.758050940999997</v>
+      </c>
+      <c r="AC50" s="7">
+        <f t="shared" si="4"/>
+        <v>22.258486112642995</v>
+      </c>
+      <c r="AD50" s="7">
+        <f t="shared" si="4"/>
+        <v>22.770431293233781</v>
+      </c>
+      <c r="AE50" s="7">
+        <f t="shared" si="4"/>
+        <v>23.294151212978157</v>
+      </c>
+      <c r="AF50" s="7">
+        <f t="shared" si="4"/>
+        <v>23.829916690876654</v>
+      </c>
+      <c r="AG50" s="7">
+        <f t="shared" si="4"/>
+        <v>24.378004774766815</v>
+      </c>
+      <c r="AH50" s="7">
+        <f t="shared" si="4"/>
+        <v>24.938698884586451</v>
+      </c>
+      <c r="AI50" s="7">
+        <f t="shared" si="4"/>
+        <v>25.512288958931936</v>
+      </c>
+      <c r="AJ50" s="7">
+        <f t="shared" si="4"/>
+        <v>26.099071604987369</v>
+      </c>
+      <c r="AK50" s="7">
+        <f t="shared" si="4"/>
+        <v>26.699350251902075</v>
+      </c>
+      <c r="AL50" s="7">
+        <f t="shared" si="4"/>
+        <v>27.313435307695819</v>
+      </c>
+      <c r="AM50" s="7">
+        <f t="shared" si="4"/>
+        <v>27.94164431977282</v>
+      </c>
+      <c r="AN50" s="7">
+        <f t="shared" si="4"/>
+        <v>28.584302139127594</v>
+      </c>
+      <c r="AO50" s="7">
+        <f t="shared" si="4"/>
+        <v>29.241741088327526</v>
+      </c>
+      <c r="AP50" s="7">
+        <f t="shared" si="4"/>
+        <v>29.914301133359057</v>
+      </c>
+      <c r="AQ50" s="7">
+        <f t="shared" si="4"/>
+        <v>30.602330059426311</v>
+      </c>
+      <c r="AR50" s="7">
+        <f t="shared" si="4"/>
+        <v>31.306183650793113</v>
+      </c>
+      <c r="AS50" s="7">
+        <f t="shared" si="4"/>
+        <v>32.026225874761352</v>
+      </c>
+      <c r="AT50" s="7">
+        <f t="shared" si="4"/>
+        <v>32.762829069880858</v>
+      </c>
+      <c r="AU50" s="7">
+        <f t="shared" si="4"/>
+        <v>33.516374138488118</v>
+      </c>
+      <c r="AV50" s="7">
+        <f t="shared" si="4"/>
+        <v>34.28725074367334</v>
+      </c>
+      <c r="AW50" s="7">
+        <f t="shared" si="4"/>
+        <v>35.075857510777823</v>
+      </c>
+      <c r="AX50" s="7">
+        <f t="shared" si="4"/>
+        <v>35.882602233525709</v>
+      </c>
+      <c r="AY50" s="7">
+        <f t="shared" si="4"/>
+        <v>36.707902084896794</v>
+      </c>
+      <c r="AZ50" s="7">
+        <f t="shared" si="4"/>
+        <v>37.552183832849416</v>
+      </c>
+      <c r="BA50" s="7">
+        <f t="shared" si="4"/>
+        <v>38.415884061004945</v>
+      </c>
+      <c r="BB50" s="7">
+        <f t="shared" si="4"/>
+        <v>39.299449394408057</v>
+      </c>
+      <c r="BC50" s="7">
+        <f t="shared" si="4"/>
+        <v>40.203336730479442</v>
+      </c>
+      <c r="BD50" s="7">
+        <f t="shared" si="4"/>
+        <v>41.128013475280468</v>
+      </c>
+      <c r="BE50" s="7">
+        <f t="shared" si="4"/>
+        <v>42.073957785211917</v>
+      </c>
+      <c r="BF50" s="7">
+        <f t="shared" si="4"/>
+        <v>43.041658814271784</v>
+      </c>
+      <c r="BG50" s="7">
+        <f t="shared" si="4"/>
+        <v>44.031616967000033</v>
+      </c>
+      <c r="BH50" s="7">
+        <f t="shared" si="4"/>
+        <v>45.044344157241028</v>
+      </c>
+      <c r="BI50" s="7">
+        <f t="shared" si="4"/>
+        <v>46.08036407285757</v>
+      </c>
+      <c r="BJ50" s="7">
+        <f t="shared" si="4"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BK50" s="7">
+        <f t="shared" si="4"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BL50" s="7">
+        <f t="shared" si="4"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BM50" s="7">
+        <f t="shared" si="4"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BN50" s="7">
+        <f t="shared" si="4"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BO50" s="7">
+        <f t="shared" ref="BO50:CS50" si="5">BO49</f>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BP50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BQ50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BR50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BS50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BT50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BU50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BV50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BW50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BX50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BY50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="BZ50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CA50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CB50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CC50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CD50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CE50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CF50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CG50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CH50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CI50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CJ50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CK50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CL50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CM50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CN50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CO50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CP50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CQ50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CR50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+      <c r="CS50" s="7">
+        <f t="shared" si="5"/>
+        <v>47.14021244653329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="7">
+        <f>'[3]Processed Energy Prices'!E32</f>
+        <v>2.4124089999999998</v>
+      </c>
+      <c r="C51" s="7">
+        <f>'[3]Processed Energy Prices'!F32</f>
+        <v>2.3775740000000001</v>
+      </c>
+      <c r="D51" s="7">
+        <f>'[3]Processed Energy Prices'!G32</f>
+        <v>2.4015439999999999</v>
+      </c>
+      <c r="E51" s="7">
+        <f>'[3]Processed Energy Prices'!H32</f>
+        <v>2.4437799999999998</v>
+      </c>
+      <c r="F51" s="7">
+        <f>'[3]Processed Energy Prices'!I32</f>
+        <v>2.4890810000000001</v>
+      </c>
+      <c r="G51" s="7">
+        <f>'[3]Processed Energy Prices'!J32</f>
+        <v>2.5510630000000001</v>
+      </c>
+      <c r="H51" s="7">
+        <f>'[3]Processed Energy Prices'!K32</f>
+        <v>2.598379</v>
+      </c>
+      <c r="I51" s="7">
+        <f>'[3]Processed Energy Prices'!L32</f>
+        <v>2.641133</v>
+      </c>
+      <c r="J51" s="7">
+        <f>'[3]Processed Energy Prices'!M32</f>
+        <v>2.6855169999999999</v>
+      </c>
+      <c r="K51" s="7">
+        <f>'[3]Processed Energy Prices'!N32</f>
+        <v>2.7280199999999999</v>
+      </c>
+      <c r="L51" s="7">
+        <f>'[3]Processed Energy Prices'!O32</f>
+        <v>2.7629160000000001</v>
+      </c>
+      <c r="M51" s="7">
+        <f>'[3]Processed Energy Prices'!P32</f>
+        <v>2.8010009999999999</v>
+      </c>
+      <c r="N51" s="7">
+        <f>'[3]Processed Energy Prices'!Q32</f>
+        <v>2.8395980000000001</v>
+      </c>
+      <c r="O51" s="7">
+        <f>'[3]Processed Energy Prices'!R32</f>
+        <v>2.8813170000000001</v>
+      </c>
+      <c r="P51" s="7">
+        <f>'[3]Processed Energy Prices'!S32</f>
+        <v>2.914139</v>
+      </c>
+      <c r="Q51" s="7">
+        <f>'[3]Processed Energy Prices'!T32</f>
+        <v>2.9564339999999998</v>
+      </c>
+      <c r="R51" s="7">
+        <f>'[3]Processed Energy Prices'!U32</f>
+        <v>2.985579</v>
+      </c>
+      <c r="S51" s="7">
+        <f>'[3]Processed Energy Prices'!V32</f>
+        <v>3.0166810000000002</v>
+      </c>
+      <c r="T51" s="7">
+        <f>'[3]Processed Energy Prices'!W32</f>
+        <v>3.0477449999999999</v>
+      </c>
+      <c r="U51" s="7">
+        <f>'[3]Processed Energy Prices'!X32</f>
+        <v>3.0820979999999998</v>
+      </c>
+      <c r="V51" s="7">
+        <f>'[3]Processed Energy Prices'!Y32</f>
+        <v>3.1195349999999999</v>
+      </c>
+      <c r="W51" s="7">
+        <f>'[3]Processed Energy Prices'!Z32</f>
+        <v>3.1589079999999998</v>
+      </c>
+      <c r="X51" s="7">
+        <f>'[3]Processed Energy Prices'!AA32</f>
+        <v>3.1996739999999999</v>
+      </c>
+      <c r="Y51" s="7">
+        <f>'[3]Processed Energy Prices'!AB32</f>
+        <v>3.2355070000000001</v>
+      </c>
+      <c r="Z51" s="7">
+        <f>'[3]Processed Energy Prices'!AC32</f>
+        <v>3.2721490000000002</v>
+      </c>
+      <c r="AA51" s="7">
+        <f>'[3]Processed Energy Prices'!AD32</f>
+        <v>3.3023980000000002</v>
+      </c>
+      <c r="AB51" s="7">
+        <f>'[3]Processed Energy Prices'!AE32</f>
+        <v>3.3453291739999997</v>
+      </c>
+      <c r="AC51" s="7">
+        <f>'[3]Processed Energy Prices'!AF32</f>
+        <v>3.3888184532619996</v>
+      </c>
+      <c r="AD51" s="7">
+        <f>'[3]Processed Energy Prices'!AG32</f>
+        <v>3.4328730931544054</v>
+      </c>
+      <c r="AE51" s="7">
+        <f>'[3]Processed Energy Prices'!AH32</f>
+        <v>3.4775004433654124</v>
+      </c>
+      <c r="AF51" s="7">
+        <f>'[3]Processed Energy Prices'!AI32</f>
+        <v>3.5227079491291624</v>
+      </c>
+      <c r="AG51" s="7">
+        <f>'[3]Processed Energy Prices'!AJ32</f>
+        <v>3.5685031524678412</v>
+      </c>
+      <c r="AH51" s="7">
+        <f>'[3]Processed Energy Prices'!AK32</f>
+        <v>3.6148936934499227</v>
+      </c>
+      <c r="AI51" s="7">
+        <f>'[3]Processed Energy Prices'!AL32</f>
+        <v>3.6618873114647714</v>
+      </c>
+      <c r="AJ51" s="7">
+        <f>'[3]Processed Energy Prices'!AM32</f>
+        <v>3.7094918465138131</v>
+      </c>
+      <c r="AK51" s="7">
+        <f>'[3]Processed Energy Prices'!AN32</f>
+        <v>3.7577152405184924</v>
+      </c>
+      <c r="AL51" s="7">
+        <f>'[3]Processed Energy Prices'!AO32</f>
+        <v>3.8065655386452324</v>
+      </c>
+      <c r="AM51" s="7">
+        <f>'[3]Processed Energy Prices'!AP32</f>
+        <v>3.8560508906476199</v>
+      </c>
+      <c r="AN51" s="7">
+        <f>'[3]Processed Energy Prices'!AQ32</f>
+        <v>3.9061795522260385</v>
+      </c>
+      <c r="AO51" s="7">
+        <f>'[3]Processed Energy Prices'!AR32</f>
+        <v>3.9569598864049764</v>
+      </c>
+      <c r="AP51" s="7">
+        <f>'[3]Processed Energy Prices'!AS32</f>
+        <v>4.0084003649282405</v>
+      </c>
+      <c r="AQ51" s="7">
+        <f>'[3]Processed Energy Prices'!AT32</f>
+        <v>4.0605095696723073</v>
+      </c>
+      <c r="AR51" s="7">
+        <f>'[3]Processed Energy Prices'!AU32</f>
+        <v>4.113296194078047</v>
+      </c>
+      <c r="AS51" s="7">
+        <f>'[3]Processed Energy Prices'!AV32</f>
+        <v>4.166769044601061</v>
+      </c>
+      <c r="AT51" s="7">
+        <f>'[3]Processed Energy Prices'!AW32</f>
+        <v>4.2209370421808741</v>
+      </c>
+      <c r="AU51" s="7">
+        <f>'[3]Processed Energy Prices'!AX32</f>
+        <v>4.2758092237292251</v>
+      </c>
+      <c r="AV51" s="7">
+        <f>'[3]Processed Energy Prices'!AY32</f>
+        <v>4.3313947436377047</v>
+      </c>
+      <c r="AW51" s="7">
+        <f>'[3]Processed Energy Prices'!AZ32</f>
+        <v>4.3877028753049947</v>
+      </c>
+      <c r="AX51" s="7">
+        <f>'[3]Processed Energy Prices'!BA32</f>
+        <v>4.4447430126839595</v>
+      </c>
+      <c r="AY51" s="7">
+        <f>'[3]Processed Energy Prices'!BB32</f>
+        <v>4.5025246718488505</v>
+      </c>
+      <c r="AZ51" s="7">
+        <f>'[3]Processed Energy Prices'!BC32</f>
+        <v>4.5610574925828855</v>
+      </c>
+      <c r="BA51" s="7">
+        <f>'[3]Processed Energy Prices'!BD32</f>
+        <v>4.6203512399864621</v>
+      </c>
+      <c r="BB51" s="7">
+        <f>'[3]Processed Energy Prices'!BE32</f>
+        <v>4.6804158061062857</v>
+      </c>
+      <c r="BC51" s="7">
+        <f>'[3]Processed Energy Prices'!BF32</f>
+        <v>4.7412612115856669</v>
+      </c>
+      <c r="BD51" s="7">
+        <f>'[3]Processed Energy Prices'!BG32</f>
+        <v>4.8028976073362806</v>
+      </c>
+      <c r="BE51" s="7">
+        <f>'[3]Processed Energy Prices'!BH32</f>
+        <v>4.8653352762316517</v>
+      </c>
+      <c r="BF51" s="7">
+        <f>'[3]Processed Energy Prices'!BI32</f>
+        <v>4.9285846348226627</v>
+      </c>
+      <c r="BG51" s="7">
+        <f>'[3]Processed Energy Prices'!BJ32</f>
+        <v>4.9926562350753567</v>
+      </c>
+      <c r="BH51" s="7">
+        <f>'[3]Processed Energy Prices'!BK32</f>
+        <v>5.0575607661313358</v>
+      </c>
+      <c r="BI51" s="7">
+        <f>'[3]Processed Energy Prices'!BL32</f>
+        <v>5.1233090560910428</v>
+      </c>
+      <c r="BJ51" s="7">
+        <f>'[3]Processed Energy Prices'!BM32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BK51" s="7">
+        <f>'[3]Processed Energy Prices'!BN32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BL51" s="7">
+        <f>'[3]Processed Energy Prices'!BO32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BM51" s="7">
+        <f>'[3]Processed Energy Prices'!BP32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BN51" s="7">
+        <f>'[3]Processed Energy Prices'!BQ32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BO51" s="7">
+        <f>'[3]Processed Energy Prices'!BR32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BP51" s="7">
+        <f>'[3]Processed Energy Prices'!BS32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BQ51" s="7">
+        <f>'[3]Processed Energy Prices'!BT32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BR51" s="7">
+        <f>'[3]Processed Energy Prices'!BU32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BS51" s="7">
+        <f>'[3]Processed Energy Prices'!BV32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BT51" s="7">
+        <f>'[3]Processed Energy Prices'!BW32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BU51" s="7">
+        <f>'[3]Processed Energy Prices'!BX32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BV51" s="7">
+        <f>'[3]Processed Energy Prices'!BY32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BW51" s="7">
+        <f>'[3]Processed Energy Prices'!BZ32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BX51" s="7">
+        <f>'[3]Processed Energy Prices'!CA32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BY51" s="7">
+        <f>'[3]Processed Energy Prices'!CB32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="BZ51" s="7">
+        <f>'[3]Processed Energy Prices'!CC32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CA51" s="7">
+        <f>'[3]Processed Energy Prices'!CD32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CB51" s="7">
+        <f>'[3]Processed Energy Prices'!CE32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CC51" s="7">
+        <f>'[3]Processed Energy Prices'!CF32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CD51" s="7">
+        <f>'[3]Processed Energy Prices'!CG32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CE51" s="7">
+        <f>'[3]Processed Energy Prices'!CH32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CF51" s="7">
+        <f>'[3]Processed Energy Prices'!CI32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CG51" s="7">
+        <f>'[3]Processed Energy Prices'!CJ32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CH51" s="7">
+        <f>'[3]Processed Energy Prices'!CK32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CI51" s="7">
+        <f>'[3]Processed Energy Prices'!CL32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CJ51" s="7">
+        <f>'[3]Processed Energy Prices'!CM32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CK51" s="7">
+        <f>'[3]Processed Energy Prices'!CN32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CL51" s="7">
+        <f>'[3]Processed Energy Prices'!CO32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CM51" s="7">
+        <f>'[3]Processed Energy Prices'!CP32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CN51" s="7">
+        <f>'[3]Processed Energy Prices'!CQ32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CO51" s="7">
+        <f>'[3]Processed Energy Prices'!CR32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CP51" s="7">
+        <f>'[3]Processed Energy Prices'!CS32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CQ51" s="7">
+        <f>'[3]Processed Energy Prices'!CT32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CR51" s="7">
+        <f>'[3]Processed Energy Prices'!CU32</f>
+        <v>5.189912073820226</v>
+      </c>
+      <c r="CS51" s="7">
+        <f>'[3]Processed Energy Prices'!CV32</f>
+        <v>5.189912073820226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <f>'[3]Processed Energy Prices'!$B$43</f>
+        <v>1.5</v>
+      </c>
+      <c r="C52">
+        <f>B52</f>
+        <v>1.5</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:BO52" si="6">C52</f>
+        <v>1.5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AQ52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AS52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AV52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AY52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AZ52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BA52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BB52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BC52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BD52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BE52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BF52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BG52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BH52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BI52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BJ52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BK52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BL52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BM52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BN52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BO52">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BP52">
+        <f t="shared" ref="BP52:CS52" si="7">BO52</f>
+        <v>1.5</v>
+      </c>
+      <c r="BQ52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BR52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BS52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BT52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BU52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BV52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BW52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BX52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BY52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BZ52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CA52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CB52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CC52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CD52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CE52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CF52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CG52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CH52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CI52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CJ52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CK52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CL52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CM52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CN52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CO52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CP52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CQ52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CR52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="CS52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="7">
+        <f>'[3]Processed Energy Prices'!E33</f>
+        <v>3.398593</v>
+      </c>
+      <c r="C53" s="7">
+        <f>'[3]Processed Energy Prices'!F33</f>
+        <v>3.3475890000000001</v>
+      </c>
+      <c r="D53" s="7">
+        <f>'[3]Processed Energy Prices'!G33</f>
+        <v>3.625057</v>
+      </c>
+      <c r="E53" s="7">
+        <f>'[3]Processed Energy Prices'!H33</f>
+        <v>3.9359329999999999</v>
+      </c>
+      <c r="F53" s="7">
+        <f>'[3]Processed Energy Prices'!I33</f>
+        <v>4.2158259999999999</v>
+      </c>
+      <c r="G53" s="7">
+        <f>'[3]Processed Energy Prices'!J33</f>
+        <v>4.608263</v>
+      </c>
+      <c r="H53" s="7">
+        <f>'[3]Processed Energy Prices'!K33</f>
+        <v>5.0473359999999996</v>
+      </c>
+      <c r="I53" s="7">
+        <f>'[3]Processed Energy Prices'!L33</f>
+        <v>5.4071189999999998</v>
+      </c>
+      <c r="J53" s="7">
+        <f>'[3]Processed Energy Prices'!M33</f>
+        <v>6.0226360000000003</v>
+      </c>
+      <c r="K53" s="7">
+        <f>'[3]Processed Energy Prices'!N33</f>
+        <v>6.3933260000000001</v>
+      </c>
+      <c r="L53" s="7">
+        <f>'[3]Processed Energy Prices'!O33</f>
+        <v>6.7001650000000001</v>
+      </c>
+      <c r="M53" s="7">
+        <f>'[3]Processed Energy Prices'!P33</f>
+        <v>7.0568819999999999</v>
+      </c>
+      <c r="N53" s="7">
+        <f>'[3]Processed Energy Prices'!Q33</f>
+        <v>7.2021689999999996</v>
+      </c>
+      <c r="O53" s="7">
+        <f>'[3]Processed Energy Prices'!R33</f>
+        <v>7.2776589999999999</v>
+      </c>
+      <c r="P53" s="7">
+        <f>'[3]Processed Energy Prices'!S33</f>
+        <v>7.5891859999999998</v>
+      </c>
+      <c r="Q53" s="7">
+        <f>'[3]Processed Energy Prices'!T33</f>
+        <v>7.8939760000000003</v>
+      </c>
+      <c r="R53" s="7">
+        <f>'[3]Processed Energy Prices'!U33</f>
+        <v>8.2995409999999996</v>
+      </c>
+      <c r="S53" s="7">
+        <f>'[3]Processed Energy Prices'!V33</f>
+        <v>8.5124619999999993</v>
+      </c>
+      <c r="T53" s="7">
+        <f>'[3]Processed Energy Prices'!W33</f>
+        <v>8.5117530000000006</v>
+      </c>
+      <c r="U53" s="7">
+        <f>'[3]Processed Energy Prices'!X33</f>
+        <v>8.6779379999999993</v>
+      </c>
+      <c r="V53" s="7">
+        <f>'[3]Processed Energy Prices'!Y33</f>
+        <v>8.8058069999999997</v>
+      </c>
+      <c r="W53" s="7">
+        <f>'[3]Processed Energy Prices'!Z33</f>
+        <v>9.0269549999999992</v>
+      </c>
+      <c r="X53" s="7">
+        <f>'[3]Processed Energy Prices'!AA33</f>
+        <v>9.3014240000000008</v>
+      </c>
+      <c r="Y53" s="7">
+        <f>'[3]Processed Energy Prices'!AB33</f>
+        <v>9.790991</v>
+      </c>
+      <c r="Z53" s="7">
+        <f>'[3]Processed Energy Prices'!AC33</f>
+        <v>10.352221</v>
+      </c>
+      <c r="AA53" s="7">
+        <f>'[3]Processed Energy Prices'!AD33</f>
+        <v>10.631080000000001</v>
+      </c>
+      <c r="AB53" s="7">
+        <f>'[3]Processed Energy Prices'!AE33</f>
+        <v>11.056323200000001</v>
+      </c>
+      <c r="AC53" s="7">
+        <f>'[3]Processed Energy Prices'!AF33</f>
+        <v>11.498576128000002</v>
+      </c>
+      <c r="AD53" s="7">
+        <f>'[3]Processed Energy Prices'!AG33</f>
+        <v>11.958519173120003</v>
+      </c>
+      <c r="AE53" s="7">
+        <f>'[3]Processed Energy Prices'!AH33</f>
+        <v>12.436859940044803</v>
+      </c>
+      <c r="AF53" s="7">
+        <f>'[3]Processed Energy Prices'!AI33</f>
+        <v>12.934334337646595</v>
+      </c>
+      <c r="AG53" s="7">
+        <f>'[3]Processed Energy Prices'!AJ33</f>
+        <v>13.451707711152459</v>
+      </c>
+      <c r="AH53" s="7">
+        <f>'[3]Processed Energy Prices'!AK33</f>
+        <v>13.989776019598557</v>
+      </c>
+      <c r="AI53" s="7">
+        <f>'[3]Processed Energy Prices'!AL33</f>
+        <v>14.549367060382499</v>
+      </c>
+      <c r="AJ53" s="7">
+        <f>'[3]Processed Energy Prices'!AM33</f>
+        <v>15.131341742797799</v>
+      </c>
+      <c r="AK53" s="7">
+        <f>'[3]Processed Energy Prices'!AN33</f>
+        <v>15.736595412509711</v>
+      </c>
+      <c r="AL53" s="7">
+        <f>'[3]Processed Energy Prices'!AO33</f>
+        <v>16.366059229010101</v>
+      </c>
+      <c r="AM53" s="7">
+        <f>'[3]Processed Energy Prices'!AP33</f>
+        <v>17.020701598170508</v>
+      </c>
+      <c r="AN53" s="7">
+        <f>'[3]Processed Energy Prices'!AQ33</f>
+        <v>17.701529662097329</v>
+      </c>
+      <c r="AO53" s="7">
+        <f>'[3]Processed Energy Prices'!AR33</f>
+        <v>18.409590848581221</v>
+      </c>
+      <c r="AP53" s="7">
+        <f>'[3]Processed Energy Prices'!AS33</f>
+        <v>19.145974482524469</v>
+      </c>
+      <c r="AQ53" s="7">
+        <f>'[3]Processed Energy Prices'!AT33</f>
+        <v>19.911813461825449</v>
+      </c>
+      <c r="AR53" s="7">
+        <f>'[3]Processed Energy Prices'!AU33</f>
+        <v>20.708286000298468</v>
+      </c>
+      <c r="AS53" s="7">
+        <f>'[3]Processed Energy Prices'!AV33</f>
+        <v>21.536617440310408</v>
+      </c>
+      <c r="AT53" s="7">
+        <f>'[3]Processed Energy Prices'!AW33</f>
+        <v>22.398082137922824</v>
+      </c>
+      <c r="AU53" s="7">
+        <f>'[3]Processed Energy Prices'!AX33</f>
+        <v>23.294005423439739</v>
+      </c>
+      <c r="AV53" s="7">
+        <f>'[3]Processed Energy Prices'!AY33</f>
+        <v>24.225765640377329</v>
+      </c>
+      <c r="AW53" s="7">
+        <f>'[3]Processed Energy Prices'!AZ33</f>
+        <v>25.194796265992423</v>
+      </c>
+      <c r="AX53" s="7">
+        <f>'[3]Processed Energy Prices'!BA33</f>
+        <v>26.202588116632121</v>
+      </c>
+      <c r="AY53" s="7">
+        <f>'[3]Processed Energy Prices'!BB33</f>
+        <v>27.250691641297408</v>
+      </c>
+      <c r="AZ53" s="7">
+        <f>'[3]Processed Energy Prices'!BC33</f>
+        <v>28.340719306949307</v>
+      </c>
+      <c r="BA53" s="7">
+        <f>'[3]Processed Energy Prices'!BD33</f>
+        <v>29.47434807922728</v>
+      </c>
+      <c r="BB53" s="7">
+        <f>'[3]Processed Energy Prices'!BE33</f>
+        <v>30.653322002396372</v>
+      </c>
+      <c r="BC53" s="7">
+        <f>'[3]Processed Energy Prices'!BF33</f>
+        <v>31.879454882492229</v>
+      </c>
+      <c r="BD53" s="7">
+        <f>'[3]Processed Energy Prices'!BG33</f>
+        <v>33.154633077791921</v>
+      </c>
+      <c r="BE53" s="7">
+        <f>'[3]Processed Energy Prices'!BH33</f>
+        <v>34.480818400903601</v>
+      </c>
+      <c r="BF53" s="7">
+        <f>'[3]Processed Energy Prices'!BI33</f>
+        <v>35.860051136939745</v>
+      </c>
+      <c r="BG53" s="7">
+        <f>'[3]Processed Energy Prices'!BJ33</f>
+        <v>37.294453182417335</v>
+      </c>
+      <c r="BH53" s="7">
+        <f>'[3]Processed Energy Prices'!BK33</f>
+        <v>38.786231309714033</v>
+      </c>
+      <c r="BI53" s="7">
+        <f>'[3]Processed Energy Prices'!BL33</f>
+        <v>40.337680562102598</v>
+      </c>
+      <c r="BJ53" s="7">
+        <f>'[3]Processed Energy Prices'!BM33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BK53" s="7">
+        <f>'[3]Processed Energy Prices'!BN33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BL53" s="7">
+        <f>'[3]Processed Energy Prices'!BO33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BM53" s="7">
+        <f>'[3]Processed Energy Prices'!BP33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BN53" s="7">
+        <f>'[3]Processed Energy Prices'!BQ33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BO53" s="7">
+        <f>'[3]Processed Energy Prices'!BR33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BP53" s="7">
+        <f>'[3]Processed Energy Prices'!BS33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BQ53" s="7">
+        <f>'[3]Processed Energy Prices'!BT33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BR53" s="7">
+        <f>'[3]Processed Energy Prices'!BU33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BS53" s="7">
+        <f>'[3]Processed Energy Prices'!BV33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BT53" s="7">
+        <f>'[3]Processed Energy Prices'!BW33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BU53" s="7">
+        <f>'[3]Processed Energy Prices'!BX33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BV53" s="7">
+        <f>'[3]Processed Energy Prices'!BY33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BW53" s="7">
+        <f>'[3]Processed Energy Prices'!BZ33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BX53" s="7">
+        <f>'[3]Processed Energy Prices'!CA33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BY53" s="7">
+        <f>'[3]Processed Energy Prices'!CB33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="BZ53" s="7">
+        <f>'[3]Processed Energy Prices'!CC33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CA53" s="7">
+        <f>'[3]Processed Energy Prices'!CD33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CB53" s="7">
+        <f>'[3]Processed Energy Prices'!CE33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CC53" s="7">
+        <f>'[3]Processed Energy Prices'!CF33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CD53" s="7">
+        <f>'[3]Processed Energy Prices'!CG33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CE53" s="7">
+        <f>'[3]Processed Energy Prices'!CH33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CF53" s="7">
+        <f>'[3]Processed Energy Prices'!CI33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CG53" s="7">
+        <f>'[3]Processed Energy Prices'!CJ33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CH53" s="7">
+        <f>'[3]Processed Energy Prices'!CK33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CI53" s="7">
+        <f>'[3]Processed Energy Prices'!CL33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CJ53" s="7">
+        <f>'[3]Processed Energy Prices'!CM33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CK53" s="7">
+        <f>'[3]Processed Energy Prices'!CN33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CL53" s="7">
+        <f>'[3]Processed Energy Prices'!CO33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CM53" s="7">
+        <f>'[3]Processed Energy Prices'!CP33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CN53" s="7">
+        <f>'[3]Processed Energy Prices'!CQ33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CO53" s="7">
+        <f>'[3]Processed Energy Prices'!CR33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CP53" s="7">
+        <f>'[3]Processed Energy Prices'!CS33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CQ53" s="7">
+        <f>'[3]Processed Energy Prices'!CT33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CR53" s="7">
+        <f>'[3]Processed Energy Prices'!CU33</f>
+        <v>41.951187784586701</v>
+      </c>
+      <c r="CS53" s="7">
+        <f>'[3]Processed Energy Prices'!CV33</f>
+        <v>41.951187784586701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>0</v>
+      </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
+      <c r="BT54">
+        <v>0</v>
+      </c>
+      <c r="BU54">
+        <v>0</v>
+      </c>
+      <c r="BV54">
+        <v>0</v>
+      </c>
+      <c r="BW54">
+        <v>0</v>
+      </c>
+      <c r="BX54">
+        <v>0</v>
+      </c>
+      <c r="BY54">
+        <v>0</v>
+      </c>
+      <c r="BZ54">
+        <v>0</v>
+      </c>
+      <c r="CA54">
+        <v>0</v>
+      </c>
+      <c r="CB54">
+        <v>0</v>
+      </c>
+      <c r="CC54">
+        <v>0</v>
+      </c>
+      <c r="CD54">
+        <v>0</v>
+      </c>
+      <c r="CE54">
+        <v>0</v>
+      </c>
+      <c r="CF54">
+        <v>0</v>
+      </c>
+      <c r="CG54">
+        <v>0</v>
+      </c>
+      <c r="CH54">
+        <v>0</v>
+      </c>
+      <c r="CI54">
+        <v>0</v>
+      </c>
+      <c r="CJ54">
+        <v>0</v>
+      </c>
+      <c r="CK54">
+        <v>0</v>
+      </c>
+      <c r="CL54">
+        <v>0</v>
+      </c>
+      <c r="CM54">
+        <v>0</v>
+      </c>
+      <c r="CN54">
+        <v>0</v>
+      </c>
+      <c r="CO54">
+        <v>0</v>
+      </c>
+      <c r="CP54">
+        <v>0</v>
+      </c>
+      <c r="CQ54">
+        <v>0</v>
+      </c>
+      <c r="CR54">
+        <v>0</v>
+      </c>
+      <c r="CS54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
+      <c r="BR55">
+        <v>0</v>
+      </c>
+      <c r="BS55">
+        <v>0</v>
+      </c>
+      <c r="BT55">
+        <v>0</v>
+      </c>
+      <c r="BU55">
+        <v>0</v>
+      </c>
+      <c r="BV55">
+        <v>0</v>
+      </c>
+      <c r="BW55">
+        <v>0</v>
+      </c>
+      <c r="BX55">
+        <v>0</v>
+      </c>
+      <c r="BY55">
+        <v>0</v>
+      </c>
+      <c r="BZ55">
+        <v>0</v>
+      </c>
+      <c r="CA55">
+        <v>0</v>
+      </c>
+      <c r="CB55">
+        <v>0</v>
+      </c>
+      <c r="CC55">
+        <v>0</v>
+      </c>
+      <c r="CD55">
+        <v>0</v>
+      </c>
+      <c r="CE55">
+        <v>0</v>
+      </c>
+      <c r="CF55">
+        <v>0</v>
+      </c>
+      <c r="CG55">
+        <v>0</v>
+      </c>
+      <c r="CH55">
+        <v>0</v>
+      </c>
+      <c r="CI55">
+        <v>0</v>
+      </c>
+      <c r="CJ55">
+        <v>0</v>
+      </c>
+      <c r="CK55">
+        <v>0</v>
+      </c>
+      <c r="CL55">
+        <v>0</v>
+      </c>
+      <c r="CM55">
+        <v>0</v>
+      </c>
+      <c r="CN55">
+        <v>0</v>
+      </c>
+      <c r="CO55">
+        <v>0</v>
+      </c>
+      <c r="CP55">
+        <v>0</v>
+      </c>
+      <c r="CQ55">
+        <v>0</v>
+      </c>
+      <c r="CR55">
+        <v>0</v>
+      </c>
+      <c r="CS55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
+      <c r="BT56">
+        <v>0</v>
+      </c>
+      <c r="BU56">
+        <v>0</v>
+      </c>
+      <c r="BV56">
+        <v>0</v>
+      </c>
+      <c r="BW56">
+        <v>0</v>
+      </c>
+      <c r="BX56">
+        <v>0</v>
+      </c>
+      <c r="BY56">
+        <v>0</v>
+      </c>
+      <c r="BZ56">
+        <v>0</v>
+      </c>
+      <c r="CA56">
+        <v>0</v>
+      </c>
+      <c r="CB56">
+        <v>0</v>
+      </c>
+      <c r="CC56">
+        <v>0</v>
+      </c>
+      <c r="CD56">
+        <v>0</v>
+      </c>
+      <c r="CE56">
+        <v>0</v>
+      </c>
+      <c r="CF56">
+        <v>0</v>
+      </c>
+      <c r="CG56">
+        <v>0</v>
+      </c>
+      <c r="CH56">
+        <v>0</v>
+      </c>
+      <c r="CI56">
+        <v>0</v>
+      </c>
+      <c r="CJ56">
+        <v>0</v>
+      </c>
+      <c r="CK56">
+        <v>0</v>
+      </c>
+      <c r="CL56">
+        <v>0</v>
+      </c>
+      <c r="CM56">
+        <v>0</v>
+      </c>
+      <c r="CN56">
+        <v>0</v>
+      </c>
+      <c r="CO56">
+        <v>0</v>
+      </c>
+      <c r="CP56">
+        <v>0</v>
+      </c>
+      <c r="CQ56">
+        <v>0</v>
+      </c>
+      <c r="CR56">
+        <v>0</v>
+      </c>
+      <c r="CS56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
+        <v>0</v>
+      </c>
+      <c r="BS57">
+        <v>0</v>
+      </c>
+      <c r="BT57">
+        <v>0</v>
+      </c>
+      <c r="BU57">
+        <v>0</v>
+      </c>
+      <c r="BV57">
+        <v>0</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
+      </c>
+      <c r="BX57">
+        <v>0</v>
+      </c>
+      <c r="BY57">
+        <v>0</v>
+      </c>
+      <c r="BZ57">
+        <v>0</v>
+      </c>
+      <c r="CA57">
+        <v>0</v>
+      </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
+      <c r="CC57">
+        <v>0</v>
+      </c>
+      <c r="CD57">
+        <v>0</v>
+      </c>
+      <c r="CE57">
+        <v>0</v>
+      </c>
+      <c r="CF57">
+        <v>0</v>
+      </c>
+      <c r="CG57">
+        <v>0</v>
+      </c>
+      <c r="CH57">
+        <v>0</v>
+      </c>
+      <c r="CI57">
+        <v>0</v>
+      </c>
+      <c r="CJ57">
+        <v>0</v>
+      </c>
+      <c r="CK57">
+        <v>0</v>
+      </c>
+      <c r="CL57">
+        <v>0</v>
+      </c>
+      <c r="CM57">
+        <v>0</v>
+      </c>
+      <c r="CN57">
+        <v>0</v>
+      </c>
+      <c r="CO57">
+        <v>0</v>
+      </c>
+      <c r="CP57">
+        <v>0</v>
+      </c>
+      <c r="CQ57">
+        <v>0</v>
+      </c>
+      <c r="CR57">
+        <v>0</v>
+      </c>
+      <c r="CS57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:97" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+      <c r="BQ58">
+        <v>0</v>
+      </c>
+      <c r="BR58">
+        <v>0</v>
+      </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
+      <c r="BT58">
+        <v>0</v>
+      </c>
+      <c r="BU58">
+        <v>0</v>
+      </c>
+      <c r="BV58">
+        <v>0</v>
+      </c>
+      <c r="BW58">
+        <v>0</v>
+      </c>
+      <c r="BX58">
+        <v>0</v>
+      </c>
+      <c r="BY58">
+        <v>0</v>
+      </c>
+      <c r="BZ58">
+        <v>0</v>
+      </c>
+      <c r="CA58">
+        <v>0</v>
+      </c>
+      <c r="CB58">
+        <v>0</v>
+      </c>
+      <c r="CC58">
+        <v>0</v>
+      </c>
+      <c r="CD58">
+        <v>0</v>
+      </c>
+      <c r="CE58">
+        <v>0</v>
+      </c>
+      <c r="CF58">
+        <v>0</v>
+      </c>
+      <c r="CG58">
+        <v>0</v>
+      </c>
+      <c r="CH58">
+        <v>0</v>
+      </c>
+      <c r="CI58">
+        <v>0</v>
+      </c>
+      <c r="CJ58">
+        <v>0</v>
+      </c>
+      <c r="CK58">
+        <v>0</v>
+      </c>
+      <c r="CL58">
+        <v>0</v>
+      </c>
+      <c r="CM58">
+        <v>0</v>
+      </c>
+      <c r="CN58">
+        <v>0</v>
+      </c>
+      <c r="CO58">
+        <v>0</v>
+      </c>
+      <c r="CP58">
+        <v>0</v>
+      </c>
+      <c r="CQ58">
+        <v>0</v>
+      </c>
+      <c r="CR58">
+        <v>0</v>
+      </c>
+      <c r="CS58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>30</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C61" t="s">
         <v>31</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="62" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B62" s="5">
         <v>606000</v>
       </c>
-      <c r="C48" s="5">
-        <f t="shared" ref="C48:C58" si="4">B48/1000</f>
+      <c r="C62" s="5">
+        <f t="shared" ref="C62:C72" si="8">B62/1000</f>
         <v>606</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D62" s="5">
         <v>6060000</v>
       </c>
-      <c r="E48" s="5">
-        <f>D48/C48</f>
+      <c r="E62" s="5">
+        <f>D62/C62</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="63" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B63" s="5">
         <v>211000</v>
       </c>
-      <c r="C49" s="5">
-        <f t="shared" si="4"/>
+      <c r="C63" s="5">
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D63" s="5">
         <v>6060000</v>
       </c>
-      <c r="E49" s="5">
-        <f t="shared" ref="E49:E58" si="5">D49/C49</f>
+      <c r="E63" s="5">
+        <f t="shared" ref="E63:E72" si="9">D63/C63</f>
         <v>28720.379146919433</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="64" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B64" s="5">
         <v>580000</v>
       </c>
-      <c r="C50" s="5">
-        <f t="shared" si="4"/>
+      <c r="C64" s="5">
+        <f t="shared" si="8"/>
         <v>580</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D64" s="5">
         <v>6060000</v>
       </c>
-      <c r="E50" s="5">
-        <f t="shared" si="5"/>
+      <c r="E64" s="5">
+        <f t="shared" si="9"/>
         <v>10448.275862068966</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B65" s="5">
         <v>85000</v>
       </c>
-      <c r="C51" s="5">
-        <f t="shared" si="4"/>
+      <c r="C65" s="5">
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D65" s="5">
         <v>6060000</v>
       </c>
-      <c r="E51" s="5">
-        <f t="shared" si="5"/>
+      <c r="E65" s="5">
+        <f t="shared" si="9"/>
         <v>71294.117647058825</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B66" s="5">
         <v>50000</v>
       </c>
-      <c r="C52" s="5">
-        <f t="shared" si="4"/>
+      <c r="C66" s="5">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D66" s="5">
         <v>6060000</v>
       </c>
-      <c r="E52" s="5">
-        <f t="shared" si="5"/>
+      <c r="E66" s="5">
+        <f t="shared" si="9"/>
         <v>121200</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B67" s="5">
         <v>1125000</v>
       </c>
-      <c r="C53" s="5">
-        <f t="shared" si="4"/>
+      <c r="C67" s="5">
+        <f t="shared" si="8"/>
         <v>1125</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D67" s="5">
         <v>300000000</v>
       </c>
-      <c r="E53" s="5">
-        <f t="shared" si="5"/>
+      <c r="E67" s="5">
+        <f t="shared" si="9"/>
         <v>266666.66666666669</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B68" s="5">
         <v>500000</v>
       </c>
-      <c r="C54" s="5">
-        <f t="shared" si="4"/>
+      <c r="C68" s="5">
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D68" s="5">
         <v>8000000</v>
       </c>
-      <c r="E54" s="5">
-        <f t="shared" si="5"/>
+      <c r="E68" s="5">
+        <f t="shared" si="9"/>
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B69" s="5">
         <v>100000</v>
       </c>
-      <c r="C55" s="5">
-        <f t="shared" si="4"/>
+      <c r="C69" s="5">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D69" s="5">
         <v>5593333.333333334</v>
       </c>
-      <c r="E55" s="5">
-        <f t="shared" si="5"/>
+      <c r="E69" s="5">
+        <f t="shared" si="9"/>
         <v>55933.333333333343</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B70" s="5">
         <v>100000</v>
       </c>
-      <c r="C56" s="5">
-        <f t="shared" si="4"/>
+      <c r="C70" s="5">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D70" s="5">
         <v>440000</v>
       </c>
-      <c r="E56" s="5">
-        <f t="shared" si="5"/>
+      <c r="E70" s="5">
+        <f t="shared" si="9"/>
         <v>4400</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B71" s="5">
         <v>200000</v>
       </c>
-      <c r="C57" s="5">
-        <f t="shared" si="4"/>
+      <c r="C71" s="5">
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D71" s="5">
         <v>440000</v>
       </c>
-      <c r="E57" s="5">
-        <f t="shared" si="5"/>
+      <c r="E71" s="5">
+        <f t="shared" si="9"/>
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B72" s="5">
         <v>50000</v>
       </c>
-      <c r="C58" s="5">
-        <f t="shared" si="4"/>
+      <c r="C72" s="5">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D72" s="5">
         <v>6060000</v>
       </c>
-      <c r="E58" s="5">
-        <f t="shared" si="5"/>
+      <c r="E72" s="5">
+        <f t="shared" si="9"/>
         <v>121200</v>
       </c>
     </row>
@@ -62463,10 +67826,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B811EB-3C8F-574D-B73C-319DAD2125F2}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62823,6 +68186,14 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cap_mw.xlsx
+++ b/data/cap_mw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dthierry/Projects/mid-s/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35DAF2-DB3D-7649-9EE3-BE4A2A9B4231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCADC42B-1245-B04E-B95D-343212F0E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33560" yWindow="1980" windowWidth="27040" windowHeight="15120" activeTab="2" xr2:uid="{F789D925-8883-FB42-82FA-75F0C65534D3}"/>
+    <workbookView xWindow="49500" yWindow="8760" windowWidth="11140" windowHeight="12980" activeTab="1" xr2:uid="{F789D925-8883-FB42-82FA-75F0C65534D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39324,8 +39324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2313F1A-1A7F-8742-94DA-B97B5900FCEF}">
   <dimension ref="A1:CS59"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ31" workbookViewId="0">
-      <selection activeCell="CS59" sqref="CS59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41953,7 +41953,7 @@
       </c>
     </row>
     <row r="15" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -46064,7 +46064,7 @@
       </c>
     </row>
     <row r="33" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -48720,7 +48720,7 @@
       <c r="CS45" s="11"/>
     </row>
     <row r="47" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -52247,8 +52247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1832942-D461-F44A-9C1C-8E13CD3E1720}">
   <dimension ref="A1:CS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63501,7 +63501,7 @@
       <c r="CS45" s="7"/>
     </row>
     <row r="46" spans="1:97" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="16" t="s">
         <v>68</v>
       </c>
     </row>

--- a/data/cap_mw.xlsx
+++ b/data/cap_mw.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dthierry/Projects/mid-s/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAAC09D-F35A-FA41-86EA-65D113075113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46D5E8E-044F-274C-9627-F0338B3C358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="14000" windowHeight="18880" xr2:uid="{F789D925-8883-FB42-82FA-75F0C65534D3}"/>
-    <workbookView xWindow="13960" yWindow="1300" windowWidth="15180" windowHeight="16940" activeTab="4" xr2:uid="{9446866F-D3EE-A24F-A84A-EC558BEF7D8F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="14000" windowHeight="18880" activeTab="1" xr2:uid="{F789D925-8883-FB42-82FA-75F0C65534D3}"/>
+    <workbookView xWindow="13960" yWindow="1300" windowWidth="15180" windowHeight="16940" xr2:uid="{9446866F-D3EE-A24F-A84A-EC558BEF7D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="reference" sheetId="6" r:id="rId1"/>
@@ -14012,10 +14012,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE21AF5-9A2D-C947-8393-5708940DABEB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -14317,7 +14319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2313F1A-1A7F-8742-94DA-B97B5900FCEF}">
   <dimension ref="A1:CS59"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
     <sheetView topLeftCell="A28" workbookViewId="1">
@@ -27240,8 +27242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1832942-D461-F44A-9C1C-8E13CD3E1720}">
   <dimension ref="A1:CS72"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" zoomScale="239" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:E72"/>
+    <sheetView topLeftCell="A54" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
     <sheetView topLeftCell="A35" workbookViewId="1">
       <selection activeCell="B31" sqref="B31"/>
@@ -42824,7 +42826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B811EB-3C8F-574D-B73C-319DAD2125F2}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:D13"/>
     </sheetView>
     <sheetView workbookViewId="1">
@@ -43205,7 +43207,7 @@
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
